--- a/GATEWAY/A1#111#SYNCLABSRLXX/SYNCLAB_Srl/SYNCLINIC/4.2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#SYNCLABSRLXX/SYNCLAB_Srl/SYNCLINIC/4.2.0/report-checklist.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1376" uniqueCount="518">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="524">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -1889,11 +1889,29 @@
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
+    <t xml:space="preserve">2024-10-10T10:55:16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1776dddec5a8247a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.50504.4.4.58abd399bad0600779e72c5fcca9a61309f0e511bf2b092b549e63acade3e465.95eaef04a3^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RAD_CT2</t>
   </si>
   <si>
     <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di una futura pubblicazione con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway
 Il Documento CDA2 Referto Radiologia dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RAD" e "CDA2_Referto_di_Radiologia_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2024-10-10T10:59:51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a908e0371191fd71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.50504.4.4.7bbb3dd5bd4d841074240cd04b319bb809fbfa3beb8db50028b8369ae586750e.b5c62b6529^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">Razionale di Applicabilità</t>
@@ -2752,10 +2770,10 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="1" sqref="K18 A4"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.82"/>
@@ -2839,10 +2857,10 @@
   <dimension ref="A1:B996"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B48" activeCellId="1" sqref="K18 B48"/>
+      <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.18"/>
@@ -3916,14 +3934,14 @@
   <dimension ref="A1:AA809"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B166" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="K18" activeCellId="0" sqref="K18"/>
+      <selection pane="bottomLeft" activeCell="A166" activeCellId="0" sqref="A166"/>
+      <selection pane="bottomRight" activeCell="K225" activeCellId="0" sqref="K225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.55"/>
@@ -4394,7 +4412,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="29.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="26" t="n">
         <v>6</v>
       </c>
@@ -4435,7 +4453,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="29.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="n">
         <v>7</v>
       </c>
@@ -4476,7 +4494,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="29.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="26" t="n">
         <v>8</v>
       </c>
@@ -4517,7 +4535,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="29.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="26" t="n">
         <v>9</v>
       </c>
@@ -5039,7 +5057,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="27.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="26" t="n">
         <v>29</v>
       </c>
@@ -5347,7 +5365,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="26" t="n">
         <v>37</v>
       </c>
@@ -5657,7 +5675,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="26" t="n">
         <v>45</v>
       </c>
@@ -6383,7 +6401,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="26" t="n">
         <v>63</v>
       </c>
@@ -6424,7 +6442,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="26" t="n">
         <v>64</v>
       </c>
@@ -6465,7 +6483,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="26" t="n">
         <v>65</v>
       </c>
@@ -6506,7 +6524,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="26" t="n">
         <v>66</v>
       </c>
@@ -6547,7 +6565,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="26" t="n">
         <v>67</v>
       </c>
@@ -6588,7 +6606,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="26" t="n">
         <v>68</v>
       </c>
@@ -6629,7 +6647,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="26" t="n">
         <v>69</v>
       </c>
@@ -6670,7 +6688,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="26" t="n">
         <v>70</v>
       </c>
@@ -6711,7 +6729,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="26" t="n">
         <v>71</v>
       </c>
@@ -6752,7 +6770,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="26" t="n">
         <v>72</v>
       </c>
@@ -6793,7 +6811,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="26" t="n">
         <v>73</v>
       </c>
@@ -6834,7 +6852,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="26" t="n">
         <v>74</v>
       </c>
@@ -11267,7 +11285,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="26" t="n">
         <v>369</v>
       </c>
@@ -12684,16 +12702,22 @@
       <c r="E224" s="41" t="s">
         <v>482</v>
       </c>
-      <c r="F224" s="42"/>
-      <c r="G224" s="43"/>
-      <c r="H224" s="43"/>
-      <c r="I224" s="43"/>
+      <c r="F224" s="42" t="n">
+        <v>45575</v>
+      </c>
+      <c r="G224" s="30" t="s">
+        <v>483</v>
+      </c>
+      <c r="H224" s="43" t="s">
+        <v>484</v>
+      </c>
+      <c r="I224" s="43" t="s">
+        <v>485</v>
+      </c>
       <c r="J224" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="K224" s="44" t="s">
-        <v>63</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="K224" s="44"/>
       <c r="L224" s="44"/>
       <c r="M224" s="44"/>
       <c r="N224" s="44"/>
@@ -12720,21 +12744,27 @@
         <v>105</v>
       </c>
       <c r="D225" s="49" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="E225" s="50" t="s">
-        <v>484</v>
-      </c>
-      <c r="F225" s="51"/>
-      <c r="G225" s="52"/>
-      <c r="H225" s="52"/>
-      <c r="I225" s="52"/>
+        <v>487</v>
+      </c>
+      <c r="F225" s="51" t="n">
+        <v>45575</v>
+      </c>
+      <c r="G225" s="30" t="s">
+        <v>488</v>
+      </c>
+      <c r="H225" s="52" t="s">
+        <v>489</v>
+      </c>
+      <c r="I225" s="52" t="s">
+        <v>490</v>
+      </c>
       <c r="J225" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="K225" s="53" t="s">
-        <v>63</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="K225" s="53"/>
       <c r="L225" s="53"/>
       <c r="M225" s="53"/>
       <c r="N225" s="53"/>
@@ -17345,7 +17375,6 @@
   <autoFilter ref="A9:W225">
     <filterColumn colId="2">
       <filters>
-        <filter val="LDO"/>
         <filter val="RAD"/>
         <filter val="RSA"/>
       </filters>
@@ -17394,14 +17423,14 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I15" activeCellId="1" sqref="K18 I15"/>
+      <selection pane="topLeft" activeCell="I15" activeCellId="0" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17411,7 +17440,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17421,12 +17450,12 @@
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17436,7 +17465,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
   </sheetData>
@@ -17460,10 +17489,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C10" activeCellId="1" sqref="K18 C10"/>
+      <selection pane="bottomLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.82"/>
@@ -17476,22 +17505,22 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="F1" s="59" t="s">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="G1" s="60" t="s">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17499,13 +17528,13 @@
         <v>47</v>
       </c>
       <c r="B2" s="61" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C2" s="62" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17513,13 +17542,13 @@
         <v>59</v>
       </c>
       <c r="B3" s="61" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C3" s="62" t="s">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="D3" s="62" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17527,13 +17556,13 @@
         <v>105</v>
       </c>
       <c r="B4" s="61" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C4" s="62" t="n">
         <v>446.447</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17541,13 +17570,13 @@
         <v>70</v>
       </c>
       <c r="B5" s="61" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C5" s="62" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17555,13 +17584,13 @@
         <v>79</v>
       </c>
       <c r="B6" s="61" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C6" s="62" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="D6" s="63" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17569,13 +17598,13 @@
         <v>88</v>
       </c>
       <c r="B7" s="61" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C7" s="62" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="D7" s="63" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17583,13 +17612,13 @@
         <v>107</v>
       </c>
       <c r="B8" s="61" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C8" s="62" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="D8" s="63" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17597,27 +17626,27 @@
         <v>103</v>
       </c>
       <c r="B9" s="61" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C9" s="62" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="D9" s="63" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="61" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="B10" s="61" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C10" s="63" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="D10" s="62" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -17625,13 +17654,13 @@
         <v>429</v>
       </c>
       <c r="B11" s="61" t="s">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="C11" s="62" t="s">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="D11" s="63" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -18604,10 +18633,10 @@
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="K18 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.46484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.17"/>
@@ -18624,7 +18653,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="64" t="s">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B2" s="64" t="s">
         <v>62</v>
@@ -18632,7 +18661,7 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="64" t="s">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="B3" s="64" t="s">
         <v>101</v>

--- a/GATEWAY/A1#111#SYNCLABSRLXX/SYNCLAB_Srl/SYNCLINIC/4.2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#SYNCLABSRLXX/SYNCLAB_Srl/SYNCLINIC/4.2.0/report-checklist.xlsx
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="523">
   <si>
     <t xml:space="preserve">COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -335,7 +335,7 @@
 Il Documento CDA2 Lettera Dimissione Ospedaliera dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test LDO" e "CDA2_Lettera di Dimissione Ospedaliera_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">SI</t>
+    <t xml:space="preserve">NO</t>
   </si>
   <si>
     <t xml:space="preserve">Campo/sezione non gestito/a in modo strutturato dall’applicativo</t>
@@ -514,9 +514,6 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_LDO_KO</t>
   </si>
   <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
     <t xml:space="preserve">Campo valorizzato di default</t>
   </si>
   <si>
@@ -612,9 +609,6 @@
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
   </si>
   <si>
-    <t xml:space="preserve">Test non applicabile in quanto riguardano parametri statici configurati di sistema</t>
-  </si>
-  <si>
     <t xml:space="preserve">VALIDAZIONE_TOKEN_JWT_CAMPO_CERT_VAC_KO</t>
   </si>
   <si>
@@ -629,6 +623,9 @@
   <si>
     <t xml:space="preserve">Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
 "ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", " PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SI</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_LDO_TIMEOUT</t>
@@ -2017,11 +2014,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="d/m/yyyy"/>
-    <numFmt numFmtId="167" formatCode="dd/mm/yyyy"/>
   </numFmts>
   <fonts count="15">
     <font>
@@ -2372,7 +2368,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="64">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2515,10 +2511,6 @@
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="13" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2773,7 +2765,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.82"/>
@@ -2860,7 +2852,7 @@
       <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.18"/>
@@ -3934,14 +3926,14 @@
   <dimension ref="A1:AA809"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B166" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A166" activeCellId="0" sqref="A166"/>
-      <selection pane="bottomRight" activeCell="K225" activeCellId="0" sqref="K225"/>
+      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="A48" activeCellId="0" sqref="A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.55"/>
@@ -4412,7 +4404,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="29.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="26" t="n">
         <v>6</v>
       </c>
@@ -4453,7 +4445,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="29.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="26" t="n">
         <v>7</v>
       </c>
@@ -4494,7 +4486,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="29.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="26" t="n">
         <v>8</v>
       </c>
@@ -4535,7 +4527,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="29.2" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="29.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="26" t="n">
         <v>9</v>
       </c>
@@ -5057,7 +5049,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="27.35" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="27.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="26" t="n">
         <v>29</v>
       </c>
@@ -5078,10 +5070,10 @@
       <c r="H32" s="30"/>
       <c r="I32" s="30"/>
       <c r="J32" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="K32" s="31" t="s">
         <v>101</v>
-      </c>
-      <c r="K32" s="31" t="s">
-        <v>102</v>
       </c>
       <c r="L32" s="31"/>
       <c r="M32" s="31"/>
@@ -5106,10 +5098,10 @@
         <v>46</v>
       </c>
       <c r="C33" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="27" t="s">
         <v>103</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>104</v>
       </c>
       <c r="E33" s="35" t="s">
         <v>98</v>
@@ -5143,10 +5135,10 @@
         <v>46</v>
       </c>
       <c r="C34" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D34" s="27" t="s">
         <v>105</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>106</v>
       </c>
       <c r="E34" s="35" t="s">
         <v>98</v>
@@ -5156,10 +5148,10 @@
       <c r="H34" s="30"/>
       <c r="I34" s="30"/>
       <c r="J34" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="K34" s="31" t="s">
         <v>101</v>
-      </c>
-      <c r="K34" s="31" t="s">
-        <v>102</v>
       </c>
       <c r="L34" s="31"/>
       <c r="M34" s="31"/>
@@ -5184,10 +5176,10 @@
         <v>46</v>
       </c>
       <c r="C35" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D35" s="27" t="s">
         <v>107</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>108</v>
       </c>
       <c r="E35" s="35" t="s">
         <v>98</v>
@@ -5197,10 +5189,10 @@
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
       <c r="J35" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="K35" s="31" t="s">
         <v>101</v>
-      </c>
-      <c r="K35" s="31" t="s">
-        <v>102</v>
       </c>
       <c r="L35" s="31"/>
       <c r="M35" s="31"/>
@@ -5228,7 +5220,7 @@
         <v>70</v>
       </c>
       <c r="D36" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E36" s="35" t="s">
         <v>98</v>
@@ -5265,7 +5257,7 @@
         <v>79</v>
       </c>
       <c r="D37" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E37" s="35" t="s">
         <v>98</v>
@@ -5302,7 +5294,7 @@
         <v>88</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E38" s="35" t="s">
         <v>98</v>
@@ -5339,10 +5331,10 @@
         <v>47</v>
       </c>
       <c r="D39" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="E39" s="35" t="s">
         <v>112</v>
-      </c>
-      <c r="E39" s="35" t="s">
-        <v>113</v>
       </c>
       <c r="F39" s="29"/>
       <c r="G39" s="30"/>
@@ -5365,7 +5357,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="26" t="n">
         <v>37</v>
       </c>
@@ -5376,20 +5368,20 @@
         <v>59</v>
       </c>
       <c r="D40" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E40" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F40" s="29"/>
       <c r="G40" s="30"/>
       <c r="H40" s="30"/>
       <c r="I40" s="30"/>
       <c r="J40" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="K40" s="31" t="s">
         <v>101</v>
-      </c>
-      <c r="K40" s="31" t="s">
-        <v>102</v>
       </c>
       <c r="L40" s="31"/>
       <c r="M40" s="31"/>
@@ -5414,13 +5406,13 @@
         <v>46</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D41" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E41" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F41" s="29"/>
       <c r="G41" s="30"/>
@@ -5451,23 +5443,23 @@
         <v>46</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D42" s="27" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E42" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F42" s="29"/>
       <c r="G42" s="30"/>
       <c r="H42" s="30"/>
       <c r="I42" s="30"/>
       <c r="J42" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="K42" s="31" t="s">
         <v>101</v>
-      </c>
-      <c r="K42" s="31" t="s">
-        <v>102</v>
       </c>
       <c r="L42" s="31"/>
       <c r="M42" s="31"/>
@@ -5492,23 +5484,23 @@
         <v>46</v>
       </c>
       <c r="C43" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D43" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E43" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F43" s="29"/>
       <c r="G43" s="30"/>
       <c r="H43" s="30"/>
       <c r="I43" s="30"/>
       <c r="J43" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="K43" s="31" t="s">
         <v>101</v>
-      </c>
-      <c r="K43" s="36" t="s">
-        <v>118</v>
       </c>
       <c r="L43" s="31"/>
       <c r="M43" s="31"/>
@@ -5536,10 +5528,10 @@
         <v>70</v>
       </c>
       <c r="D44" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E44" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F44" s="29"/>
       <c r="G44" s="30"/>
@@ -5573,10 +5565,10 @@
         <v>79</v>
       </c>
       <c r="D45" s="27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E45" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F45" s="29"/>
       <c r="G45" s="30"/>
@@ -5610,10 +5602,10 @@
         <v>88</v>
       </c>
       <c r="D46" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E46" s="35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F46" s="29"/>
       <c r="G46" s="30"/>
@@ -5647,10 +5639,10 @@
         <v>47</v>
       </c>
       <c r="D47" s="27" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E47" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F47" s="29"/>
       <c r="G47" s="30"/>
@@ -5668,14 +5660,14 @@
       <c r="S47" s="31"/>
       <c r="T47" s="31"/>
       <c r="U47" s="32" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="V47" s="33"/>
       <c r="W47" s="34" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="26" t="n">
         <v>45</v>
       </c>
@@ -5686,42 +5678,44 @@
         <v>59</v>
       </c>
       <c r="D48" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E48" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F48" s="29"/>
       <c r="G48" s="30"/>
       <c r="H48" s="30"/>
       <c r="I48" s="30"/>
       <c r="J48" s="31" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="K48" s="31"/>
       <c r="L48" s="31"/>
-      <c r="M48" s="31"/>
+      <c r="M48" s="31" t="s">
+        <v>122</v>
+      </c>
       <c r="N48" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="O48" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="P48" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q48" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="O48" s="31" t="s">
+      <c r="R48" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="S48" s="36" t="s">
         <v>125</v>
-      </c>
-      <c r="P48" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q48" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="R48" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="S48" s="37" t="s">
-        <v>126</v>
       </c>
       <c r="T48" s="31"/>
       <c r="U48" s="32" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="V48" s="33"/>
       <c r="W48" s="34" t="s">
@@ -5736,13 +5730,13 @@
         <v>46</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D49" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F49" s="29"/>
       <c r="G49" s="30"/>
@@ -5760,7 +5754,7 @@
       <c r="S49" s="31"/>
       <c r="T49" s="31"/>
       <c r="U49" s="32" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="V49" s="33"/>
       <c r="W49" s="34" t="s">
@@ -5775,47 +5769,47 @@
         <v>46</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D50" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F50" s="29"/>
       <c r="G50" s="30"/>
       <c r="H50" s="30"/>
       <c r="I50" s="30"/>
       <c r="J50" s="31" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="K50" s="31"/>
       <c r="L50" s="31"/>
       <c r="M50" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="N50" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="O50" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="P50" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q50" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="N50" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="O50" s="31" t="s">
+      <c r="R50" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="S50" s="36" t="s">
         <v>125</v>
-      </c>
-      <c r="P50" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q50" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="R50" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="S50" s="37" t="s">
-        <v>126</v>
       </c>
       <c r="T50" s="31"/>
       <c r="U50" s="32" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="V50" s="33"/>
       <c r="W50" s="34" t="s">
@@ -5830,47 +5824,47 @@
         <v>46</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D51" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E51" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F51" s="29"/>
       <c r="G51" s="30"/>
       <c r="H51" s="30"/>
       <c r="I51" s="30"/>
       <c r="J51" s="31" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="K51" s="31"/>
       <c r="L51" s="31"/>
       <c r="M51" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="N51" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="O51" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="P51" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q51" s="31" t="s">
         <v>62</v>
       </c>
-      <c r="N51" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="O51" s="31" t="s">
+      <c r="R51" s="31" t="s">
+        <v>122</v>
+      </c>
+      <c r="S51" s="36" t="s">
         <v>125</v>
-      </c>
-      <c r="P51" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="Q51" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="R51" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="S51" s="37" t="s">
-        <v>126</v>
       </c>
       <c r="T51" s="31"/>
       <c r="U51" s="32" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="V51" s="33"/>
       <c r="W51" s="34" t="s">
@@ -5888,10 +5882,10 @@
         <v>70</v>
       </c>
       <c r="D52" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E52" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F52" s="29"/>
       <c r="G52" s="30"/>
@@ -5909,7 +5903,7 @@
       <c r="S52" s="31"/>
       <c r="T52" s="31"/>
       <c r="U52" s="32" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="V52" s="33"/>
       <c r="W52" s="34" t="s">
@@ -5927,10 +5921,10 @@
         <v>79</v>
       </c>
       <c r="D53" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E53" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F53" s="29"/>
       <c r="G53" s="30"/>
@@ -5948,7 +5942,7 @@
       <c r="S53" s="31"/>
       <c r="T53" s="31"/>
       <c r="U53" s="32" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="V53" s="33"/>
       <c r="W53" s="34" t="s">
@@ -5966,10 +5960,10 @@
         <v>88</v>
       </c>
       <c r="D54" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F54" s="29"/>
       <c r="G54" s="30"/>
@@ -5987,7 +5981,7 @@
       <c r="S54" s="31"/>
       <c r="T54" s="31"/>
       <c r="U54" s="32" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="V54" s="33"/>
       <c r="W54" s="34" t="s">
@@ -6005,10 +5999,10 @@
         <v>47</v>
       </c>
       <c r="D55" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E55" s="28" t="s">
         <v>133</v>
-      </c>
-      <c r="E55" s="28" t="s">
-        <v>134</v>
       </c>
       <c r="F55" s="29"/>
       <c r="G55" s="30"/>
@@ -6042,10 +6036,10 @@
         <v>47</v>
       </c>
       <c r="D56" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" s="28" t="s">
         <v>135</v>
-      </c>
-      <c r="E56" s="28" t="s">
-        <v>136</v>
       </c>
       <c r="F56" s="29"/>
       <c r="G56" s="30"/>
@@ -6079,10 +6073,10 @@
         <v>47</v>
       </c>
       <c r="D57" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="E57" s="28" t="s">
         <v>137</v>
-      </c>
-      <c r="E57" s="28" t="s">
-        <v>138</v>
       </c>
       <c r="F57" s="29"/>
       <c r="G57" s="30"/>
@@ -6116,10 +6110,10 @@
         <v>47</v>
       </c>
       <c r="D58" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="E58" s="28" t="s">
         <v>139</v>
-      </c>
-      <c r="E58" s="28" t="s">
-        <v>140</v>
       </c>
       <c r="F58" s="29"/>
       <c r="G58" s="30"/>
@@ -6153,10 +6147,10 @@
         <v>47</v>
       </c>
       <c r="D59" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="E59" s="28" t="s">
         <v>141</v>
-      </c>
-      <c r="E59" s="28" t="s">
-        <v>142</v>
       </c>
       <c r="F59" s="29"/>
       <c r="G59" s="30"/>
@@ -6190,10 +6184,10 @@
         <v>47</v>
       </c>
       <c r="D60" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E60" s="28" t="s">
         <v>143</v>
-      </c>
-      <c r="E60" s="28" t="s">
-        <v>144</v>
       </c>
       <c r="F60" s="29"/>
       <c r="G60" s="30"/>
@@ -6227,10 +6221,10 @@
         <v>47</v>
       </c>
       <c r="D61" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E61" s="28" t="s">
         <v>145</v>
-      </c>
-      <c r="E61" s="28" t="s">
-        <v>146</v>
       </c>
       <c r="F61" s="29"/>
       <c r="G61" s="30"/>
@@ -6264,10 +6258,10 @@
         <v>47</v>
       </c>
       <c r="D62" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E62" s="28" t="s">
         <v>147</v>
-      </c>
-      <c r="E62" s="28" t="s">
-        <v>148</v>
       </c>
       <c r="F62" s="29"/>
       <c r="G62" s="30"/>
@@ -6301,10 +6295,10 @@
         <v>47</v>
       </c>
       <c r="D63" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" s="28" t="s">
         <v>149</v>
-      </c>
-      <c r="E63" s="28" t="s">
-        <v>150</v>
       </c>
       <c r="F63" s="29"/>
       <c r="G63" s="30"/>
@@ -6338,10 +6332,10 @@
         <v>47</v>
       </c>
       <c r="D64" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="E64" s="28" t="s">
         <v>151</v>
-      </c>
-      <c r="E64" s="28" t="s">
-        <v>152</v>
       </c>
       <c r="F64" s="29"/>
       <c r="G64" s="30"/>
@@ -6375,10 +6369,10 @@
         <v>47</v>
       </c>
       <c r="D65" s="27" t="s">
+        <v>152</v>
+      </c>
+      <c r="E65" s="28" t="s">
         <v>153</v>
-      </c>
-      <c r="E65" s="28" t="s">
-        <v>154</v>
       </c>
       <c r="F65" s="29"/>
       <c r="G65" s="30"/>
@@ -6401,7 +6395,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="26" t="n">
         <v>63</v>
       </c>
@@ -6412,20 +6406,20 @@
         <v>59</v>
       </c>
       <c r="D66" s="27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E66" s="28" t="s">
         <v>155</v>
-      </c>
-      <c r="E66" s="28" t="s">
-        <v>156</v>
       </c>
       <c r="F66" s="29"/>
       <c r="G66" s="30"/>
       <c r="H66" s="30"/>
       <c r="I66" s="30"/>
       <c r="J66" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K66" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L66" s="31"/>
       <c r="M66" s="31"/>
@@ -6442,7 +6436,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="26" t="n">
         <v>64</v>
       </c>
@@ -6453,20 +6447,20 @@
         <v>59</v>
       </c>
       <c r="D67" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" s="28" t="s">
         <v>158</v>
-      </c>
-      <c r="E67" s="28" t="s">
-        <v>159</v>
       </c>
       <c r="F67" s="29"/>
       <c r="G67" s="30"/>
       <c r="H67" s="30"/>
       <c r="I67" s="30"/>
       <c r="J67" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K67" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L67" s="31"/>
       <c r="M67" s="31"/>
@@ -6483,7 +6477,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="26" t="n">
         <v>65</v>
       </c>
@@ -6494,20 +6488,20 @@
         <v>59</v>
       </c>
       <c r="D68" s="27" t="s">
+        <v>159</v>
+      </c>
+      <c r="E68" s="28" t="s">
         <v>160</v>
-      </c>
-      <c r="E68" s="28" t="s">
-        <v>161</v>
       </c>
       <c r="F68" s="29"/>
       <c r="G68" s="30"/>
       <c r="H68" s="30"/>
       <c r="I68" s="30"/>
       <c r="J68" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K68" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L68" s="31"/>
       <c r="M68" s="31"/>
@@ -6524,7 +6518,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="26" t="n">
         <v>66</v>
       </c>
@@ -6535,20 +6529,20 @@
         <v>59</v>
       </c>
       <c r="D69" s="27" t="s">
+        <v>161</v>
+      </c>
+      <c r="E69" s="28" t="s">
         <v>162</v>
-      </c>
-      <c r="E69" s="28" t="s">
-        <v>163</v>
       </c>
       <c r="F69" s="29"/>
       <c r="G69" s="30"/>
       <c r="H69" s="30"/>
       <c r="I69" s="30"/>
       <c r="J69" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K69" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L69" s="31"/>
       <c r="M69" s="31"/>
@@ -6565,7 +6559,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="26" t="n">
         <v>67</v>
       </c>
@@ -6576,20 +6570,20 @@
         <v>59</v>
       </c>
       <c r="D70" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="E70" s="28" t="s">
         <v>164</v>
-      </c>
-      <c r="E70" s="28" t="s">
-        <v>165</v>
       </c>
       <c r="F70" s="29"/>
       <c r="G70" s="30"/>
       <c r="H70" s="30"/>
       <c r="I70" s="30"/>
       <c r="J70" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K70" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L70" s="31"/>
       <c r="M70" s="31"/>
@@ -6606,7 +6600,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="26" t="n">
         <v>68</v>
       </c>
@@ -6617,20 +6611,20 @@
         <v>59</v>
       </c>
       <c r="D71" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="E71" s="28" t="s">
         <v>166</v>
-      </c>
-      <c r="E71" s="28" t="s">
-        <v>167</v>
       </c>
       <c r="F71" s="29"/>
       <c r="G71" s="30"/>
       <c r="H71" s="30"/>
       <c r="I71" s="30"/>
       <c r="J71" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K71" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L71" s="31"/>
       <c r="M71" s="31"/>
@@ -6647,7 +6641,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="26" t="n">
         <v>69</v>
       </c>
@@ -6658,20 +6652,20 @@
         <v>59</v>
       </c>
       <c r="D72" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E72" s="28" t="s">
         <v>168</v>
-      </c>
-      <c r="E72" s="28" t="s">
-        <v>169</v>
       </c>
       <c r="F72" s="29"/>
       <c r="G72" s="30"/>
       <c r="H72" s="30"/>
       <c r="I72" s="30"/>
       <c r="J72" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K72" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L72" s="31"/>
       <c r="M72" s="31"/>
@@ -6688,7 +6682,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="26" t="n">
         <v>70</v>
       </c>
@@ -6699,20 +6693,20 @@
         <v>59</v>
       </c>
       <c r="D73" s="27" t="s">
+        <v>169</v>
+      </c>
+      <c r="E73" s="28" t="s">
         <v>170</v>
-      </c>
-      <c r="E73" s="28" t="s">
-        <v>171</v>
       </c>
       <c r="F73" s="29"/>
       <c r="G73" s="30"/>
       <c r="H73" s="30"/>
       <c r="I73" s="30"/>
       <c r="J73" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K73" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L73" s="31"/>
       <c r="M73" s="31"/>
@@ -6729,7 +6723,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="26" t="n">
         <v>71</v>
       </c>
@@ -6740,20 +6734,20 @@
         <v>59</v>
       </c>
       <c r="D74" s="27" t="s">
+        <v>171</v>
+      </c>
+      <c r="E74" s="28" t="s">
         <v>172</v>
-      </c>
-      <c r="E74" s="28" t="s">
-        <v>173</v>
       </c>
       <c r="F74" s="29"/>
       <c r="G74" s="30"/>
       <c r="H74" s="30"/>
       <c r="I74" s="30"/>
       <c r="J74" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K74" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L74" s="31"/>
       <c r="M74" s="31"/>
@@ -6770,7 +6764,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="26" t="n">
         <v>72</v>
       </c>
@@ -6781,20 +6775,20 @@
         <v>59</v>
       </c>
       <c r="D75" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="E75" s="28" t="s">
         <v>174</v>
-      </c>
-      <c r="E75" s="28" t="s">
-        <v>175</v>
       </c>
       <c r="F75" s="29"/>
       <c r="G75" s="30"/>
       <c r="H75" s="30"/>
       <c r="I75" s="30"/>
       <c r="J75" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K75" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L75" s="31"/>
       <c r="M75" s="31"/>
@@ -6811,7 +6805,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="26" t="n">
         <v>73</v>
       </c>
@@ -6822,20 +6816,20 @@
         <v>59</v>
       </c>
       <c r="D76" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="E76" s="28" t="s">
         <v>176</v>
-      </c>
-      <c r="E76" s="28" t="s">
-        <v>177</v>
       </c>
       <c r="F76" s="29"/>
       <c r="G76" s="30"/>
       <c r="H76" s="30"/>
       <c r="I76" s="30"/>
       <c r="J76" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K76" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L76" s="31"/>
       <c r="M76" s="31"/>
@@ -6852,7 +6846,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="26" t="n">
         <v>74</v>
       </c>
@@ -6863,20 +6857,20 @@
         <v>59</v>
       </c>
       <c r="D77" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="E77" s="28" t="s">
         <v>178</v>
-      </c>
-      <c r="E77" s="28" t="s">
-        <v>179</v>
       </c>
       <c r="F77" s="29"/>
       <c r="G77" s="30"/>
       <c r="H77" s="30"/>
       <c r="I77" s="30"/>
       <c r="J77" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K77" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L77" s="31"/>
       <c r="M77" s="31"/>
@@ -6901,23 +6895,23 @@
         <v>46</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D78" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="E78" s="28" t="s">
         <v>180</v>
-      </c>
-      <c r="E78" s="28" t="s">
-        <v>181</v>
       </c>
       <c r="F78" s="29"/>
       <c r="G78" s="30"/>
       <c r="H78" s="30"/>
       <c r="I78" s="30"/>
       <c r="J78" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K78" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L78" s="31"/>
       <c r="M78" s="31"/>
@@ -6942,23 +6936,23 @@
         <v>46</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D79" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="E79" s="28" t="s">
         <v>182</v>
-      </c>
-      <c r="E79" s="28" t="s">
-        <v>183</v>
       </c>
       <c r="F79" s="29"/>
       <c r="G79" s="30"/>
       <c r="H79" s="30"/>
       <c r="I79" s="30"/>
       <c r="J79" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K79" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L79" s="31"/>
       <c r="M79" s="31"/>
@@ -6983,23 +6977,23 @@
         <v>46</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D80" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="E80" s="28" t="s">
         <v>184</v>
-      </c>
-      <c r="E80" s="28" t="s">
-        <v>185</v>
       </c>
       <c r="F80" s="29"/>
       <c r="G80" s="30"/>
       <c r="H80" s="30"/>
       <c r="I80" s="30"/>
       <c r="J80" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K80" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L80" s="31"/>
       <c r="M80" s="31"/>
@@ -7024,23 +7018,23 @@
         <v>46</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D81" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="E81" s="28" t="s">
         <v>186</v>
-      </c>
-      <c r="E81" s="28" t="s">
-        <v>187</v>
       </c>
       <c r="F81" s="29"/>
       <c r="G81" s="30"/>
       <c r="H81" s="30"/>
       <c r="I81" s="30"/>
       <c r="J81" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K81" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L81" s="31"/>
       <c r="M81" s="31"/>
@@ -7065,23 +7059,23 @@
         <v>46</v>
       </c>
       <c r="C82" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D82" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="E82" s="28" t="s">
         <v>188</v>
-      </c>
-      <c r="E82" s="28" t="s">
-        <v>189</v>
       </c>
       <c r="F82" s="29"/>
       <c r="G82" s="30"/>
       <c r="H82" s="30"/>
       <c r="I82" s="30"/>
       <c r="J82" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K82" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L82" s="31"/>
       <c r="M82" s="31"/>
@@ -7106,23 +7100,23 @@
         <v>46</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D83" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="E83" s="28" t="s">
         <v>190</v>
-      </c>
-      <c r="E83" s="28" t="s">
-        <v>191</v>
       </c>
       <c r="F83" s="29"/>
       <c r="G83" s="30"/>
       <c r="H83" s="30"/>
       <c r="I83" s="30"/>
       <c r="J83" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K83" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L83" s="31"/>
       <c r="M83" s="31"/>
@@ -7147,23 +7141,23 @@
         <v>46</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D84" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="E84" s="28" t="s">
         <v>192</v>
-      </c>
-      <c r="E84" s="28" t="s">
-        <v>193</v>
       </c>
       <c r="F84" s="29"/>
       <c r="G84" s="30"/>
       <c r="H84" s="30"/>
       <c r="I84" s="30"/>
       <c r="J84" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K84" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L84" s="31"/>
       <c r="M84" s="31"/>
@@ -7188,23 +7182,23 @@
         <v>46</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D85" s="27" t="s">
+        <v>193</v>
+      </c>
+      <c r="E85" s="28" t="s">
         <v>194</v>
-      </c>
-      <c r="E85" s="28" t="s">
-        <v>195</v>
       </c>
       <c r="F85" s="29"/>
       <c r="G85" s="30"/>
       <c r="H85" s="30"/>
       <c r="I85" s="30"/>
       <c r="J85" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K85" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L85" s="31"/>
       <c r="M85" s="31"/>
@@ -7229,23 +7223,23 @@
         <v>46</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D86" s="27" t="s">
+        <v>195</v>
+      </c>
+      <c r="E86" s="28" t="s">
         <v>196</v>
-      </c>
-      <c r="E86" s="28" t="s">
-        <v>197</v>
       </c>
       <c r="F86" s="29"/>
       <c r="G86" s="30"/>
       <c r="H86" s="30"/>
       <c r="I86" s="30"/>
       <c r="J86" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K86" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L86" s="31"/>
       <c r="M86" s="31"/>
@@ -7270,23 +7264,23 @@
         <v>46</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D87" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="E87" s="28" t="s">
         <v>198</v>
-      </c>
-      <c r="E87" s="28" t="s">
-        <v>199</v>
       </c>
       <c r="F87" s="29"/>
       <c r="G87" s="30"/>
       <c r="H87" s="30"/>
       <c r="I87" s="30"/>
       <c r="J87" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K87" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L87" s="31"/>
       <c r="M87" s="31"/>
@@ -7311,23 +7305,23 @@
         <v>46</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D88" s="27" t="s">
+        <v>199</v>
+      </c>
+      <c r="E88" s="28" t="s">
         <v>200</v>
-      </c>
-      <c r="E88" s="28" t="s">
-        <v>201</v>
       </c>
       <c r="F88" s="29"/>
       <c r="G88" s="30"/>
       <c r="H88" s="30"/>
       <c r="I88" s="30"/>
       <c r="J88" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K88" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L88" s="31"/>
       <c r="M88" s="31"/>
@@ -7352,23 +7346,23 @@
         <v>46</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D89" s="27" t="s">
+        <v>201</v>
+      </c>
+      <c r="E89" s="28" t="s">
         <v>202</v>
-      </c>
-      <c r="E89" s="28" t="s">
-        <v>203</v>
       </c>
       <c r="F89" s="29"/>
       <c r="G89" s="30"/>
       <c r="H89" s="30"/>
       <c r="I89" s="30"/>
       <c r="J89" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K89" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L89" s="31"/>
       <c r="M89" s="31"/>
@@ -7393,23 +7387,23 @@
         <v>46</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D90" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="E90" s="28" t="s">
         <v>204</v>
-      </c>
-      <c r="E90" s="28" t="s">
-        <v>205</v>
       </c>
       <c r="F90" s="29"/>
       <c r="G90" s="30"/>
       <c r="H90" s="30"/>
       <c r="I90" s="30"/>
       <c r="J90" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K90" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L90" s="31"/>
       <c r="M90" s="31"/>
@@ -7434,23 +7428,23 @@
         <v>46</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D91" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="E91" s="28" t="s">
         <v>206</v>
-      </c>
-      <c r="E91" s="28" t="s">
-        <v>207</v>
       </c>
       <c r="F91" s="29"/>
       <c r="G91" s="30"/>
       <c r="H91" s="30"/>
       <c r="I91" s="30"/>
       <c r="J91" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K91" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L91" s="31"/>
       <c r="M91" s="31"/>
@@ -7475,23 +7469,23 @@
         <v>46</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D92" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="E92" s="28" t="s">
         <v>208</v>
-      </c>
-      <c r="E92" s="28" t="s">
-        <v>209</v>
       </c>
       <c r="F92" s="29"/>
       <c r="G92" s="30"/>
       <c r="H92" s="30"/>
       <c r="I92" s="30"/>
       <c r="J92" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K92" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L92" s="31"/>
       <c r="M92" s="31"/>
@@ -7516,23 +7510,23 @@
         <v>46</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D93" s="27" t="s">
+        <v>209</v>
+      </c>
+      <c r="E93" s="28" t="s">
         <v>210</v>
-      </c>
-      <c r="E93" s="28" t="s">
-        <v>211</v>
       </c>
       <c r="F93" s="29"/>
       <c r="G93" s="30"/>
       <c r="H93" s="30"/>
       <c r="I93" s="30"/>
       <c r="J93" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K93" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L93" s="31"/>
       <c r="M93" s="31"/>
@@ -7557,23 +7551,23 @@
         <v>46</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D94" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E94" s="28" t="s">
         <v>212</v>
-      </c>
-      <c r="E94" s="28" t="s">
-        <v>213</v>
       </c>
       <c r="F94" s="29"/>
       <c r="G94" s="30"/>
       <c r="H94" s="30"/>
       <c r="I94" s="30"/>
       <c r="J94" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K94" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L94" s="31"/>
       <c r="M94" s="31"/>
@@ -7598,23 +7592,23 @@
         <v>46</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D95" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="E95" s="28" t="s">
         <v>214</v>
-      </c>
-      <c r="E95" s="28" t="s">
-        <v>215</v>
       </c>
       <c r="F95" s="29"/>
       <c r="G95" s="30"/>
       <c r="H95" s="30"/>
       <c r="I95" s="30"/>
       <c r="J95" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K95" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L95" s="31"/>
       <c r="M95" s="31"/>
@@ -7639,23 +7633,23 @@
         <v>46</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D96" s="27" t="s">
+        <v>215</v>
+      </c>
+      <c r="E96" s="28" t="s">
         <v>216</v>
-      </c>
-      <c r="E96" s="28" t="s">
-        <v>217</v>
       </c>
       <c r="F96" s="29"/>
       <c r="G96" s="30"/>
       <c r="H96" s="30"/>
       <c r="I96" s="30"/>
       <c r="J96" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K96" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L96" s="31"/>
       <c r="M96" s="31"/>
@@ -7683,10 +7677,10 @@
         <v>70</v>
       </c>
       <c r="D97" s="27" t="s">
+        <v>217</v>
+      </c>
+      <c r="E97" s="28" t="s">
         <v>218</v>
-      </c>
-      <c r="E97" s="28" t="s">
-        <v>219</v>
       </c>
       <c r="F97" s="29"/>
       <c r="G97" s="30"/>
@@ -7720,10 +7714,10 @@
         <v>70</v>
       </c>
       <c r="D98" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="E98" s="28" t="s">
         <v>220</v>
-      </c>
-      <c r="E98" s="28" t="s">
-        <v>221</v>
       </c>
       <c r="F98" s="29"/>
       <c r="G98" s="30"/>
@@ -7757,10 +7751,10 @@
         <v>70</v>
       </c>
       <c r="D99" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="E99" s="28" t="s">
         <v>222</v>
-      </c>
-      <c r="E99" s="28" t="s">
-        <v>223</v>
       </c>
       <c r="F99" s="29"/>
       <c r="G99" s="30"/>
@@ -7794,10 +7788,10 @@
         <v>70</v>
       </c>
       <c r="D100" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="E100" s="28" t="s">
         <v>224</v>
-      </c>
-      <c r="E100" s="28" t="s">
-        <v>225</v>
       </c>
       <c r="F100" s="29"/>
       <c r="G100" s="30"/>
@@ -7831,10 +7825,10 @@
         <v>70</v>
       </c>
       <c r="D101" s="27" t="s">
+        <v>225</v>
+      </c>
+      <c r="E101" s="28" t="s">
         <v>226</v>
-      </c>
-      <c r="E101" s="28" t="s">
-        <v>227</v>
       </c>
       <c r="F101" s="29"/>
       <c r="G101" s="30"/>
@@ -7868,10 +7862,10 @@
         <v>70</v>
       </c>
       <c r="D102" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="E102" s="28" t="s">
         <v>228</v>
-      </c>
-      <c r="E102" s="28" t="s">
-        <v>229</v>
       </c>
       <c r="F102" s="29"/>
       <c r="G102" s="30"/>
@@ -7905,10 +7899,10 @@
         <v>70</v>
       </c>
       <c r="D103" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="E103" s="28" t="s">
         <v>230</v>
-      </c>
-      <c r="E103" s="28" t="s">
-        <v>231</v>
       </c>
       <c r="F103" s="29"/>
       <c r="G103" s="30"/>
@@ -7942,10 +7936,10 @@
         <v>70</v>
       </c>
       <c r="D104" s="27" t="s">
+        <v>231</v>
+      </c>
+      <c r="E104" s="28" t="s">
         <v>232</v>
-      </c>
-      <c r="E104" s="28" t="s">
-        <v>233</v>
       </c>
       <c r="F104" s="29"/>
       <c r="G104" s="30"/>
@@ -7979,10 +7973,10 @@
         <v>70</v>
       </c>
       <c r="D105" s="27" t="s">
+        <v>233</v>
+      </c>
+      <c r="E105" s="28" t="s">
         <v>234</v>
-      </c>
-      <c r="E105" s="28" t="s">
-        <v>235</v>
       </c>
       <c r="F105" s="29"/>
       <c r="G105" s="30"/>
@@ -8016,10 +8010,10 @@
         <v>70</v>
       </c>
       <c r="D106" s="27" t="s">
+        <v>235</v>
+      </c>
+      <c r="E106" s="28" t="s">
         <v>236</v>
-      </c>
-      <c r="E106" s="28" t="s">
-        <v>237</v>
       </c>
       <c r="F106" s="29"/>
       <c r="G106" s="30"/>
@@ -8053,10 +8047,10 @@
         <v>70</v>
       </c>
       <c r="D107" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="E107" s="28" t="s">
         <v>238</v>
-      </c>
-      <c r="E107" s="28" t="s">
-        <v>239</v>
       </c>
       <c r="F107" s="29"/>
       <c r="G107" s="30"/>
@@ -8090,10 +8084,10 @@
         <v>70</v>
       </c>
       <c r="D108" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="E108" s="28" t="s">
         <v>240</v>
-      </c>
-      <c r="E108" s="28" t="s">
-        <v>241</v>
       </c>
       <c r="F108" s="29"/>
       <c r="G108" s="30"/>
@@ -8127,10 +8121,10 @@
         <v>70</v>
       </c>
       <c r="D109" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="E109" s="28" t="s">
         <v>242</v>
-      </c>
-      <c r="E109" s="28" t="s">
-        <v>243</v>
       </c>
       <c r="F109" s="29"/>
       <c r="G109" s="30"/>
@@ -8164,10 +8158,10 @@
         <v>79</v>
       </c>
       <c r="D110" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="E110" s="28" t="s">
         <v>244</v>
-      </c>
-      <c r="E110" s="28" t="s">
-        <v>245</v>
       </c>
       <c r="F110" s="29"/>
       <c r="G110" s="30"/>
@@ -8201,10 +8195,10 @@
         <v>79</v>
       </c>
       <c r="D111" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="E111" s="28" t="s">
         <v>246</v>
-      </c>
-      <c r="E111" s="28" t="s">
-        <v>247</v>
       </c>
       <c r="F111" s="29"/>
       <c r="G111" s="30"/>
@@ -8238,10 +8232,10 @@
         <v>79</v>
       </c>
       <c r="D112" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="E112" s="28" t="s">
         <v>248</v>
-      </c>
-      <c r="E112" s="28" t="s">
-        <v>249</v>
       </c>
       <c r="F112" s="29"/>
       <c r="G112" s="30"/>
@@ -8275,10 +8269,10 @@
         <v>79</v>
       </c>
       <c r="D113" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="E113" s="28" t="s">
         <v>250</v>
-      </c>
-      <c r="E113" s="28" t="s">
-        <v>251</v>
       </c>
       <c r="F113" s="29"/>
       <c r="G113" s="30"/>
@@ -8312,10 +8306,10 @@
         <v>79</v>
       </c>
       <c r="D114" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="E114" s="28" t="s">
         <v>252</v>
-      </c>
-      <c r="E114" s="28" t="s">
-        <v>253</v>
       </c>
       <c r="F114" s="29"/>
       <c r="G114" s="30"/>
@@ -8349,10 +8343,10 @@
         <v>79</v>
       </c>
       <c r="D115" s="27" t="s">
+        <v>253</v>
+      </c>
+      <c r="E115" s="28" t="s">
         <v>254</v>
-      </c>
-      <c r="E115" s="28" t="s">
-        <v>255</v>
       </c>
       <c r="F115" s="29"/>
       <c r="G115" s="30"/>
@@ -8386,10 +8380,10 @@
         <v>79</v>
       </c>
       <c r="D116" s="27" t="s">
+        <v>255</v>
+      </c>
+      <c r="E116" s="28" t="s">
         <v>256</v>
-      </c>
-      <c r="E116" s="28" t="s">
-        <v>257</v>
       </c>
       <c r="F116" s="29"/>
       <c r="G116" s="30"/>
@@ -8423,10 +8417,10 @@
         <v>79</v>
       </c>
       <c r="D117" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="E117" s="28" t="s">
         <v>258</v>
-      </c>
-      <c r="E117" s="28" t="s">
-        <v>259</v>
       </c>
       <c r="F117" s="29"/>
       <c r="G117" s="30"/>
@@ -8460,10 +8454,10 @@
         <v>79</v>
       </c>
       <c r="D118" s="27" t="s">
+        <v>259</v>
+      </c>
+      <c r="E118" s="28" t="s">
         <v>260</v>
-      </c>
-      <c r="E118" s="28" t="s">
-        <v>261</v>
       </c>
       <c r="F118" s="29"/>
       <c r="G118" s="30"/>
@@ -8497,10 +8491,10 @@
         <v>79</v>
       </c>
       <c r="D119" s="27" t="s">
+        <v>261</v>
+      </c>
+      <c r="E119" s="28" t="s">
         <v>262</v>
-      </c>
-      <c r="E119" s="28" t="s">
-        <v>263</v>
       </c>
       <c r="F119" s="29"/>
       <c r="G119" s="30"/>
@@ -8534,10 +8528,10 @@
         <v>79</v>
       </c>
       <c r="D120" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="E120" s="28" t="s">
         <v>264</v>
-      </c>
-      <c r="E120" s="28" t="s">
-        <v>265</v>
       </c>
       <c r="F120" s="29"/>
       <c r="G120" s="30"/>
@@ -8571,10 +8565,10 @@
         <v>79</v>
       </c>
       <c r="D121" s="27" t="s">
+        <v>265</v>
+      </c>
+      <c r="E121" s="28" t="s">
         <v>266</v>
-      </c>
-      <c r="E121" s="28" t="s">
-        <v>267</v>
       </c>
       <c r="F121" s="29"/>
       <c r="G121" s="30"/>
@@ -8608,10 +8602,10 @@
         <v>79</v>
       </c>
       <c r="D122" s="27" t="s">
+        <v>267</v>
+      </c>
+      <c r="E122" s="28" t="s">
         <v>268</v>
-      </c>
-      <c r="E122" s="28" t="s">
-        <v>269</v>
       </c>
       <c r="F122" s="29"/>
       <c r="G122" s="30"/>
@@ -8645,10 +8639,10 @@
         <v>79</v>
       </c>
       <c r="D123" s="27" t="s">
+        <v>269</v>
+      </c>
+      <c r="E123" s="28" t="s">
         <v>270</v>
-      </c>
-      <c r="E123" s="28" t="s">
-        <v>271</v>
       </c>
       <c r="F123" s="29"/>
       <c r="G123" s="30"/>
@@ -8682,10 +8676,10 @@
         <v>79</v>
       </c>
       <c r="D124" s="27" t="s">
+        <v>271</v>
+      </c>
+      <c r="E124" s="28" t="s">
         <v>272</v>
-      </c>
-      <c r="E124" s="28" t="s">
-        <v>273</v>
       </c>
       <c r="F124" s="29"/>
       <c r="G124" s="30"/>
@@ -8719,10 +8713,10 @@
         <v>88</v>
       </c>
       <c r="D125" s="27" t="s">
+        <v>273</v>
+      </c>
+      <c r="E125" s="28" t="s">
         <v>274</v>
-      </c>
-      <c r="E125" s="28" t="s">
-        <v>275</v>
       </c>
       <c r="F125" s="29"/>
       <c r="G125" s="30"/>
@@ -8756,10 +8750,10 @@
         <v>88</v>
       </c>
       <c r="D126" s="27" t="s">
+        <v>275</v>
+      </c>
+      <c r="E126" s="28" t="s">
         <v>276</v>
-      </c>
-      <c r="E126" s="28" t="s">
-        <v>277</v>
       </c>
       <c r="F126" s="29"/>
       <c r="G126" s="30"/>
@@ -8793,10 +8787,10 @@
         <v>88</v>
       </c>
       <c r="D127" s="27" t="s">
+        <v>277</v>
+      </c>
+      <c r="E127" s="28" t="s">
         <v>278</v>
-      </c>
-      <c r="E127" s="28" t="s">
-        <v>279</v>
       </c>
       <c r="F127" s="29"/>
       <c r="G127" s="30"/>
@@ -8830,10 +8824,10 @@
         <v>88</v>
       </c>
       <c r="D128" s="27" t="s">
+        <v>279</v>
+      </c>
+      <c r="E128" s="28" t="s">
         <v>280</v>
-      </c>
-      <c r="E128" s="28" t="s">
-        <v>281</v>
       </c>
       <c r="F128" s="29"/>
       <c r="G128" s="30"/>
@@ -8867,10 +8861,10 @@
         <v>88</v>
       </c>
       <c r="D129" s="27" t="s">
+        <v>281</v>
+      </c>
+      <c r="E129" s="28" t="s">
         <v>282</v>
-      </c>
-      <c r="E129" s="28" t="s">
-        <v>283</v>
       </c>
       <c r="F129" s="29"/>
       <c r="G129" s="30"/>
@@ -8904,10 +8898,10 @@
         <v>88</v>
       </c>
       <c r="D130" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="E130" s="28" t="s">
         <v>284</v>
-      </c>
-      <c r="E130" s="28" t="s">
-        <v>285</v>
       </c>
       <c r="F130" s="29"/>
       <c r="G130" s="30"/>
@@ -8941,10 +8935,10 @@
         <v>88</v>
       </c>
       <c r="D131" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="E131" s="28" t="s">
         <v>286</v>
-      </c>
-      <c r="E131" s="28" t="s">
-        <v>287</v>
       </c>
       <c r="F131" s="29"/>
       <c r="G131" s="30"/>
@@ -8978,10 +8972,10 @@
         <v>88</v>
       </c>
       <c r="D132" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="E132" s="28" t="s">
         <v>288</v>
-      </c>
-      <c r="E132" s="28" t="s">
-        <v>289</v>
       </c>
       <c r="F132" s="29"/>
       <c r="G132" s="30"/>
@@ -9015,10 +9009,10 @@
         <v>88</v>
       </c>
       <c r="D133" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="E133" s="28" t="s">
         <v>290</v>
-      </c>
-      <c r="E133" s="28" t="s">
-        <v>291</v>
       </c>
       <c r="F133" s="29"/>
       <c r="G133" s="30"/>
@@ -9052,10 +9046,10 @@
         <v>88</v>
       </c>
       <c r="D134" s="27" t="s">
+        <v>291</v>
+      </c>
+      <c r="E134" s="28" t="s">
         <v>292</v>
-      </c>
-      <c r="E134" s="28" t="s">
-        <v>293</v>
       </c>
       <c r="F134" s="29"/>
       <c r="G134" s="30"/>
@@ -9089,10 +9083,10 @@
         <v>88</v>
       </c>
       <c r="D135" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="E135" s="28" t="s">
         <v>294</v>
-      </c>
-      <c r="E135" s="28" t="s">
-        <v>295</v>
       </c>
       <c r="F135" s="29"/>
       <c r="G135" s="30"/>
@@ -9126,10 +9120,10 @@
         <v>88</v>
       </c>
       <c r="D136" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="E136" s="28" t="s">
         <v>296</v>
-      </c>
-      <c r="E136" s="28" t="s">
-        <v>297</v>
       </c>
       <c r="F136" s="29"/>
       <c r="G136" s="30"/>
@@ -9163,10 +9157,10 @@
         <v>88</v>
       </c>
       <c r="D137" s="27" t="s">
+        <v>297</v>
+      </c>
+      <c r="E137" s="28" t="s">
         <v>298</v>
-      </c>
-      <c r="E137" s="28" t="s">
-        <v>299</v>
       </c>
       <c r="F137" s="29"/>
       <c r="G137" s="30"/>
@@ -9200,10 +9194,10 @@
         <v>88</v>
       </c>
       <c r="D138" s="27" t="s">
+        <v>299</v>
+      </c>
+      <c r="E138" s="28" t="s">
         <v>300</v>
-      </c>
-      <c r="E138" s="28" t="s">
-        <v>301</v>
       </c>
       <c r="F138" s="29"/>
       <c r="G138" s="30"/>
@@ -9237,10 +9231,10 @@
         <v>88</v>
       </c>
       <c r="D139" s="27" t="s">
+        <v>301</v>
+      </c>
+      <c r="E139" s="28" t="s">
         <v>302</v>
-      </c>
-      <c r="E139" s="28" t="s">
-        <v>303</v>
       </c>
       <c r="F139" s="29"/>
       <c r="G139" s="30"/>
@@ -9274,10 +9268,10 @@
         <v>88</v>
       </c>
       <c r="D140" s="27" t="s">
+        <v>303</v>
+      </c>
+      <c r="E140" s="28" t="s">
         <v>304</v>
-      </c>
-      <c r="E140" s="28" t="s">
-        <v>305</v>
       </c>
       <c r="F140" s="29"/>
       <c r="G140" s="30"/>
@@ -9311,10 +9305,10 @@
         <v>88</v>
       </c>
       <c r="D141" s="27" t="s">
+        <v>305</v>
+      </c>
+      <c r="E141" s="28" t="s">
         <v>306</v>
-      </c>
-      <c r="E141" s="28" t="s">
-        <v>307</v>
       </c>
       <c r="F141" s="29"/>
       <c r="G141" s="30"/>
@@ -9348,10 +9342,10 @@
         <v>88</v>
       </c>
       <c r="D142" s="27" t="s">
+        <v>307</v>
+      </c>
+      <c r="E142" s="28" t="s">
         <v>308</v>
-      </c>
-      <c r="E142" s="28" t="s">
-        <v>309</v>
       </c>
       <c r="F142" s="29"/>
       <c r="G142" s="30"/>
@@ -9385,10 +9379,10 @@
         <v>88</v>
       </c>
       <c r="D143" s="27" t="s">
+        <v>309</v>
+      </c>
+      <c r="E143" s="28" t="s">
         <v>310</v>
-      </c>
-      <c r="E143" s="28" t="s">
-        <v>311</v>
       </c>
       <c r="F143" s="29"/>
       <c r="G143" s="30"/>
@@ -9422,10 +9416,10 @@
         <v>88</v>
       </c>
       <c r="D144" s="27" t="s">
+        <v>311</v>
+      </c>
+      <c r="E144" s="28" t="s">
         <v>312</v>
-      </c>
-      <c r="E144" s="28" t="s">
-        <v>313</v>
       </c>
       <c r="F144" s="29"/>
       <c r="G144" s="30"/>
@@ -9459,10 +9453,10 @@
         <v>88</v>
       </c>
       <c r="D145" s="27" t="s">
+        <v>313</v>
+      </c>
+      <c r="E145" s="28" t="s">
         <v>314</v>
-      </c>
-      <c r="E145" s="28" t="s">
-        <v>315</v>
       </c>
       <c r="F145" s="29"/>
       <c r="G145" s="30"/>
@@ -9496,10 +9490,10 @@
         <v>88</v>
       </c>
       <c r="D146" s="27" t="s">
+        <v>315</v>
+      </c>
+      <c r="E146" s="28" t="s">
         <v>316</v>
-      </c>
-      <c r="E146" s="28" t="s">
-        <v>317</v>
       </c>
       <c r="F146" s="29"/>
       <c r="G146" s="30"/>
@@ -9533,10 +9527,10 @@
         <v>88</v>
       </c>
       <c r="D147" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="E147" s="28" t="s">
         <v>318</v>
-      </c>
-      <c r="E147" s="28" t="s">
-        <v>319</v>
       </c>
       <c r="F147" s="29"/>
       <c r="G147" s="30"/>
@@ -9570,10 +9564,10 @@
         <v>88</v>
       </c>
       <c r="D148" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="E148" s="28" t="s">
         <v>320</v>
-      </c>
-      <c r="E148" s="28" t="s">
-        <v>321</v>
       </c>
       <c r="F148" s="29"/>
       <c r="G148" s="30"/>
@@ -9607,10 +9601,10 @@
         <v>88</v>
       </c>
       <c r="D149" s="27" t="s">
+        <v>321</v>
+      </c>
+      <c r="E149" s="28" t="s">
         <v>322</v>
-      </c>
-      <c r="E149" s="28" t="s">
-        <v>323</v>
       </c>
       <c r="F149" s="29"/>
       <c r="G149" s="30"/>
@@ -9641,28 +9635,28 @@
         <v>46</v>
       </c>
       <c r="C150" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D150" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="E150" s="28" t="s">
         <v>324</v>
-      </c>
-      <c r="E150" s="28" t="s">
-        <v>325</v>
       </c>
       <c r="F150" s="29" t="n">
         <v>45572</v>
       </c>
       <c r="G150" s="30" t="s">
+        <v>325</v>
+      </c>
+      <c r="H150" s="30" t="s">
         <v>326</v>
       </c>
-      <c r="H150" s="30" t="s">
+      <c r="I150" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="I150" s="30" t="s">
-        <v>328</v>
-      </c>
       <c r="J150" s="31" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="K150" s="31"/>
       <c r="L150" s="31"/>
@@ -9688,20 +9682,20 @@
         <v>46</v>
       </c>
       <c r="C151" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D151" s="27" t="s">
+        <v>328</v>
+      </c>
+      <c r="E151" s="28" t="s">
         <v>329</v>
-      </c>
-      <c r="E151" s="28" t="s">
-        <v>330</v>
       </c>
       <c r="F151" s="29"/>
       <c r="G151" s="30"/>
       <c r="H151" s="30"/>
       <c r="I151" s="30"/>
       <c r="J151" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K151" s="31" t="s">
         <v>63</v>
@@ -9729,20 +9723,20 @@
         <v>46</v>
       </c>
       <c r="C152" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D152" s="27" t="s">
+        <v>330</v>
+      </c>
+      <c r="E152" s="28" t="s">
         <v>331</v>
-      </c>
-      <c r="E152" s="28" t="s">
-        <v>332</v>
       </c>
       <c r="F152" s="29"/>
       <c r="G152" s="30"/>
       <c r="H152" s="30"/>
       <c r="I152" s="30"/>
       <c r="J152" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K152" s="31" t="s">
         <v>63</v>
@@ -9770,20 +9764,20 @@
         <v>46</v>
       </c>
       <c r="C153" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D153" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="E153" s="28" t="s">
         <v>333</v>
-      </c>
-      <c r="E153" s="28" t="s">
-        <v>334</v>
       </c>
       <c r="F153" s="29"/>
       <c r="G153" s="30"/>
       <c r="H153" s="30"/>
       <c r="I153" s="30"/>
       <c r="J153" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K153" s="31" t="s">
         <v>63</v>
@@ -9811,23 +9805,23 @@
         <v>46</v>
       </c>
       <c r="C154" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D154" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="E154" s="28" t="s">
         <v>335</v>
-      </c>
-      <c r="E154" s="28" t="s">
-        <v>336</v>
       </c>
       <c r="F154" s="29"/>
       <c r="G154" s="30"/>
       <c r="H154" s="30"/>
       <c r="I154" s="30"/>
       <c r="J154" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K154" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L154" s="31"/>
       <c r="M154" s="31"/>
@@ -9852,23 +9846,23 @@
         <v>46</v>
       </c>
       <c r="C155" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D155" s="27" t="s">
+        <v>336</v>
+      </c>
+      <c r="E155" s="28" t="s">
         <v>337</v>
-      </c>
-      <c r="E155" s="28" t="s">
-        <v>338</v>
       </c>
       <c r="F155" s="29"/>
       <c r="G155" s="30"/>
       <c r="H155" s="30"/>
       <c r="I155" s="30"/>
       <c r="J155" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K155" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L155" s="31"/>
       <c r="M155" s="31"/>
@@ -9893,23 +9887,23 @@
         <v>46</v>
       </c>
       <c r="C156" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D156" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="E156" s="28" t="s">
         <v>339</v>
-      </c>
-      <c r="E156" s="28" t="s">
-        <v>340</v>
       </c>
       <c r="F156" s="29"/>
       <c r="G156" s="30"/>
       <c r="H156" s="30"/>
       <c r="I156" s="30"/>
       <c r="J156" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K156" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L156" s="31"/>
       <c r="M156" s="31"/>
@@ -9934,23 +9928,23 @@
         <v>46</v>
       </c>
       <c r="C157" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D157" s="27" t="s">
+        <v>340</v>
+      </c>
+      <c r="E157" s="28" t="s">
         <v>341</v>
-      </c>
-      <c r="E157" s="28" t="s">
-        <v>342</v>
       </c>
       <c r="F157" s="29"/>
       <c r="G157" s="30"/>
       <c r="H157" s="30"/>
       <c r="I157" s="30"/>
       <c r="J157" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K157" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L157" s="31"/>
       <c r="M157" s="31"/>
@@ -9975,23 +9969,23 @@
         <v>46</v>
       </c>
       <c r="C158" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D158" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="E158" s="28" t="s">
         <v>343</v>
-      </c>
-      <c r="E158" s="28" t="s">
-        <v>344</v>
       </c>
       <c r="F158" s="29"/>
       <c r="G158" s="30"/>
       <c r="H158" s="30"/>
       <c r="I158" s="30"/>
       <c r="J158" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K158" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L158" s="31"/>
       <c r="M158" s="31"/>
@@ -10016,23 +10010,23 @@
         <v>46</v>
       </c>
       <c r="C159" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D159" s="27" t="s">
+        <v>344</v>
+      </c>
+      <c r="E159" s="28" t="s">
         <v>345</v>
-      </c>
-      <c r="E159" s="28" t="s">
-        <v>346</v>
       </c>
       <c r="F159" s="29"/>
       <c r="G159" s="30"/>
       <c r="H159" s="30"/>
       <c r="I159" s="30"/>
       <c r="J159" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K159" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L159" s="31"/>
       <c r="M159" s="31"/>
@@ -10057,23 +10051,23 @@
         <v>46</v>
       </c>
       <c r="C160" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D160" s="27" t="s">
+        <v>346</v>
+      </c>
+      <c r="E160" s="28" t="s">
         <v>347</v>
-      </c>
-      <c r="E160" s="28" t="s">
-        <v>348</v>
       </c>
       <c r="F160" s="29"/>
       <c r="G160" s="30"/>
       <c r="H160" s="30"/>
       <c r="I160" s="30"/>
       <c r="J160" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K160" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L160" s="31"/>
       <c r="M160" s="31"/>
@@ -10098,23 +10092,23 @@
         <v>46</v>
       </c>
       <c r="C161" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D161" s="27" t="s">
+        <v>348</v>
+      </c>
+      <c r="E161" s="28" t="s">
         <v>349</v>
-      </c>
-      <c r="E161" s="28" t="s">
-        <v>350</v>
       </c>
       <c r="F161" s="29"/>
       <c r="G161" s="30"/>
       <c r="H161" s="30"/>
       <c r="I161" s="30"/>
       <c r="J161" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K161" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L161" s="31"/>
       <c r="M161" s="31"/>
@@ -10139,23 +10133,23 @@
         <v>46</v>
       </c>
       <c r="C162" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D162" s="27" t="s">
+        <v>350</v>
+      </c>
+      <c r="E162" s="28" t="s">
         <v>351</v>
-      </c>
-      <c r="E162" s="28" t="s">
-        <v>352</v>
       </c>
       <c r="F162" s="29"/>
       <c r="G162" s="30"/>
       <c r="H162" s="30"/>
       <c r="I162" s="30"/>
       <c r="J162" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K162" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L162" s="31"/>
       <c r="M162" s="31"/>
@@ -10180,23 +10174,23 @@
         <v>46</v>
       </c>
       <c r="C163" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D163" s="27" t="s">
+        <v>352</v>
+      </c>
+      <c r="E163" s="28" t="s">
         <v>353</v>
-      </c>
-      <c r="E163" s="28" t="s">
-        <v>354</v>
       </c>
       <c r="F163" s="29"/>
       <c r="G163" s="30"/>
       <c r="H163" s="30"/>
       <c r="I163" s="30"/>
       <c r="J163" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K163" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L163" s="31"/>
       <c r="M163" s="31"/>
@@ -10221,23 +10215,23 @@
         <v>46</v>
       </c>
       <c r="C164" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D164" s="27" t="s">
+        <v>354</v>
+      </c>
+      <c r="E164" s="28" t="s">
         <v>355</v>
-      </c>
-      <c r="E164" s="28" t="s">
-        <v>356</v>
       </c>
       <c r="F164" s="29"/>
       <c r="G164" s="30"/>
       <c r="H164" s="30"/>
       <c r="I164" s="30"/>
       <c r="J164" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K164" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L164" s="31"/>
       <c r="M164" s="31"/>
@@ -10262,23 +10256,23 @@
         <v>46</v>
       </c>
       <c r="C165" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D165" s="27" t="s">
+        <v>356</v>
+      </c>
+      <c r="E165" s="28" t="s">
         <v>357</v>
-      </c>
-      <c r="E165" s="28" t="s">
-        <v>358</v>
       </c>
       <c r="F165" s="29"/>
       <c r="G165" s="30"/>
       <c r="H165" s="30"/>
       <c r="I165" s="30"/>
       <c r="J165" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K165" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L165" s="31"/>
       <c r="M165" s="31"/>
@@ -10303,23 +10297,23 @@
         <v>46</v>
       </c>
       <c r="C166" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D166" s="27" t="s">
+        <v>358</v>
+      </c>
+      <c r="E166" s="28" t="s">
         <v>359</v>
-      </c>
-      <c r="E166" s="28" t="s">
-        <v>360</v>
       </c>
       <c r="F166" s="29"/>
       <c r="G166" s="30"/>
       <c r="H166" s="30"/>
       <c r="I166" s="30"/>
       <c r="J166" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K166" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L166" s="31"/>
       <c r="M166" s="31"/>
@@ -10344,23 +10338,23 @@
         <v>46</v>
       </c>
       <c r="C167" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D167" s="27" t="s">
+        <v>360</v>
+      </c>
+      <c r="E167" s="28" t="s">
         <v>361</v>
-      </c>
-      <c r="E167" s="28" t="s">
-        <v>362</v>
       </c>
       <c r="F167" s="29"/>
       <c r="G167" s="30"/>
       <c r="H167" s="30"/>
       <c r="I167" s="30"/>
       <c r="J167" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K167" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L167" s="31"/>
       <c r="M167" s="31"/>
@@ -10385,23 +10379,23 @@
         <v>46</v>
       </c>
       <c r="C168" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D168" s="27" t="s">
+        <v>362</v>
+      </c>
+      <c r="E168" s="28" t="s">
         <v>363</v>
-      </c>
-      <c r="E168" s="28" t="s">
-        <v>364</v>
       </c>
       <c r="F168" s="29"/>
       <c r="G168" s="30"/>
       <c r="H168" s="30"/>
       <c r="I168" s="30"/>
       <c r="J168" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K168" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L168" s="31"/>
       <c r="M168" s="31"/>
@@ -10426,23 +10420,23 @@
         <v>46</v>
       </c>
       <c r="C169" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D169" s="27" t="s">
+        <v>364</v>
+      </c>
+      <c r="E169" s="28" t="s">
         <v>365</v>
-      </c>
-      <c r="E169" s="28" t="s">
-        <v>366</v>
       </c>
       <c r="F169" s="29"/>
       <c r="G169" s="30"/>
       <c r="H169" s="30"/>
       <c r="I169" s="30"/>
       <c r="J169" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K169" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L169" s="31"/>
       <c r="M169" s="31"/>
@@ -10467,23 +10461,23 @@
         <v>46</v>
       </c>
       <c r="C170" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D170" s="27" t="s">
+        <v>366</v>
+      </c>
+      <c r="E170" s="28" t="s">
         <v>367</v>
-      </c>
-      <c r="E170" s="28" t="s">
-        <v>368</v>
       </c>
       <c r="F170" s="29"/>
       <c r="G170" s="30"/>
       <c r="H170" s="30"/>
       <c r="I170" s="30"/>
       <c r="J170" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K170" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L170" s="31"/>
       <c r="M170" s="31"/>
@@ -10508,23 +10502,23 @@
         <v>46</v>
       </c>
       <c r="C171" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D171" s="27" t="s">
+        <v>368</v>
+      </c>
+      <c r="E171" s="28" t="s">
         <v>369</v>
-      </c>
-      <c r="E171" s="28" t="s">
-        <v>370</v>
       </c>
       <c r="F171" s="29"/>
       <c r="G171" s="30"/>
       <c r="H171" s="30"/>
       <c r="I171" s="30"/>
       <c r="J171" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K171" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L171" s="31"/>
       <c r="M171" s="31"/>
@@ -10549,23 +10543,23 @@
         <v>46</v>
       </c>
       <c r="C172" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D172" s="27" t="s">
+        <v>370</v>
+      </c>
+      <c r="E172" s="28" t="s">
         <v>371</v>
-      </c>
-      <c r="E172" s="28" t="s">
-        <v>372</v>
       </c>
       <c r="F172" s="29"/>
       <c r="G172" s="30"/>
       <c r="H172" s="30"/>
       <c r="I172" s="30"/>
       <c r="J172" s="31" t="s">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="K172" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L172" s="31"/>
       <c r="M172" s="31"/>
@@ -10590,13 +10584,13 @@
         <v>46</v>
       </c>
       <c r="C173" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D173" s="27" t="s">
+        <v>372</v>
+      </c>
+      <c r="E173" s="28" t="s">
         <v>373</v>
-      </c>
-      <c r="E173" s="28" t="s">
-        <v>374</v>
       </c>
       <c r="F173" s="29"/>
       <c r="G173" s="30"/>
@@ -10627,13 +10621,13 @@
         <v>46</v>
       </c>
       <c r="C174" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D174" s="27" t="s">
+        <v>374</v>
+      </c>
+      <c r="E174" s="28" t="s">
         <v>375</v>
-      </c>
-      <c r="E174" s="28" t="s">
-        <v>376</v>
       </c>
       <c r="F174" s="29"/>
       <c r="G174" s="30"/>
@@ -10664,13 +10658,13 @@
         <v>46</v>
       </c>
       <c r="C175" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D175" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="E175" s="28" t="s">
         <v>377</v>
-      </c>
-      <c r="E175" s="28" t="s">
-        <v>378</v>
       </c>
       <c r="F175" s="29"/>
       <c r="G175" s="30"/>
@@ -10701,13 +10695,13 @@
         <v>46</v>
       </c>
       <c r="C176" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D176" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E176" s="28" t="s">
         <v>379</v>
-      </c>
-      <c r="E176" s="28" t="s">
-        <v>380</v>
       </c>
       <c r="F176" s="29"/>
       <c r="G176" s="30"/>
@@ -10738,13 +10732,13 @@
         <v>46</v>
       </c>
       <c r="C177" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D177" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="E177" s="28" t="s">
         <v>381</v>
-      </c>
-      <c r="E177" s="28" t="s">
-        <v>382</v>
       </c>
       <c r="F177" s="29"/>
       <c r="G177" s="30"/>
@@ -10775,13 +10769,13 @@
         <v>46</v>
       </c>
       <c r="C178" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D178" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="E178" s="28" t="s">
         <v>383</v>
-      </c>
-      <c r="E178" s="28" t="s">
-        <v>384</v>
       </c>
       <c r="F178" s="29"/>
       <c r="G178" s="30"/>
@@ -10812,13 +10806,13 @@
         <v>46</v>
       </c>
       <c r="C179" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D179" s="27" t="s">
+        <v>384</v>
+      </c>
+      <c r="E179" s="28" t="s">
         <v>385</v>
-      </c>
-      <c r="E179" s="28" t="s">
-        <v>386</v>
       </c>
       <c r="F179" s="29"/>
       <c r="G179" s="30"/>
@@ -10849,13 +10843,13 @@
         <v>46</v>
       </c>
       <c r="C180" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D180" s="27" t="s">
+        <v>386</v>
+      </c>
+      <c r="E180" s="28" t="s">
         <v>387</v>
-      </c>
-      <c r="E180" s="28" t="s">
-        <v>388</v>
       </c>
       <c r="F180" s="29"/>
       <c r="G180" s="30"/>
@@ -10886,13 +10880,13 @@
         <v>46</v>
       </c>
       <c r="C181" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D181" s="27" t="s">
+        <v>388</v>
+      </c>
+      <c r="E181" s="28" t="s">
         <v>389</v>
-      </c>
-      <c r="E181" s="28" t="s">
-        <v>390</v>
       </c>
       <c r="F181" s="29"/>
       <c r="G181" s="30"/>
@@ -10923,13 +10917,13 @@
         <v>46</v>
       </c>
       <c r="C182" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D182" s="27" t="s">
+        <v>390</v>
+      </c>
+      <c r="E182" s="28" t="s">
         <v>391</v>
-      </c>
-      <c r="E182" s="28" t="s">
-        <v>392</v>
       </c>
       <c r="F182" s="29"/>
       <c r="G182" s="30"/>
@@ -10960,13 +10954,13 @@
         <v>46</v>
       </c>
       <c r="C183" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D183" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="E183" s="28" t="s">
         <v>393</v>
-      </c>
-      <c r="E183" s="28" t="s">
-        <v>394</v>
       </c>
       <c r="F183" s="29"/>
       <c r="G183" s="30"/>
@@ -10997,13 +10991,13 @@
         <v>46</v>
       </c>
       <c r="C184" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D184" s="27" t="s">
+        <v>394</v>
+      </c>
+      <c r="E184" s="28" t="s">
         <v>395</v>
-      </c>
-      <c r="E184" s="28" t="s">
-        <v>396</v>
       </c>
       <c r="F184" s="29"/>
       <c r="G184" s="30"/>
@@ -11034,13 +11028,13 @@
         <v>46</v>
       </c>
       <c r="C185" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D185" s="27" t="s">
+        <v>396</v>
+      </c>
+      <c r="E185" s="28" t="s">
         <v>397</v>
-      </c>
-      <c r="E185" s="28" t="s">
-        <v>398</v>
       </c>
       <c r="F185" s="29"/>
       <c r="G185" s="30"/>
@@ -11071,13 +11065,13 @@
         <v>46</v>
       </c>
       <c r="C186" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D186" s="27" t="s">
+        <v>398</v>
+      </c>
+      <c r="E186" s="28" t="s">
         <v>399</v>
-      </c>
-      <c r="E186" s="28" t="s">
-        <v>400</v>
       </c>
       <c r="F186" s="29"/>
       <c r="G186" s="30"/>
@@ -11108,13 +11102,13 @@
         <v>46</v>
       </c>
       <c r="C187" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D187" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="E187" s="28" t="s">
         <v>401</v>
-      </c>
-      <c r="E187" s="28" t="s">
-        <v>402</v>
       </c>
       <c r="F187" s="29"/>
       <c r="G187" s="30"/>
@@ -11145,13 +11139,13 @@
         <v>46</v>
       </c>
       <c r="C188" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D188" s="27" t="s">
+        <v>402</v>
+      </c>
+      <c r="E188" s="28" t="s">
         <v>403</v>
-      </c>
-      <c r="E188" s="28" t="s">
-        <v>404</v>
       </c>
       <c r="F188" s="29"/>
       <c r="G188" s="30"/>
@@ -11182,13 +11176,13 @@
         <v>46</v>
       </c>
       <c r="C189" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D189" s="27" t="s">
+        <v>404</v>
+      </c>
+      <c r="E189" s="28" t="s">
         <v>405</v>
-      </c>
-      <c r="E189" s="28" t="s">
-        <v>406</v>
       </c>
       <c r="F189" s="29"/>
       <c r="G189" s="30"/>
@@ -11222,10 +11216,10 @@
         <v>47</v>
       </c>
       <c r="D190" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="E190" s="28" t="s">
         <v>407</v>
-      </c>
-      <c r="E190" s="28" t="s">
-        <v>408</v>
       </c>
       <c r="F190" s="29"/>
       <c r="G190" s="30"/>
@@ -11259,10 +11253,10 @@
         <v>47</v>
       </c>
       <c r="D191" s="27" t="s">
+        <v>408</v>
+      </c>
+      <c r="E191" s="28" t="s">
         <v>409</v>
-      </c>
-      <c r="E191" s="28" t="s">
-        <v>410</v>
       </c>
       <c r="F191" s="29"/>
       <c r="G191" s="30"/>
@@ -11285,7 +11279,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="29.85" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="29.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="26" t="n">
         <v>369</v>
       </c>
@@ -11296,25 +11290,25 @@
         <v>59</v>
       </c>
       <c r="D192" s="27" t="s">
+        <v>410</v>
+      </c>
+      <c r="E192" s="28" t="s">
         <v>411</v>
-      </c>
-      <c r="E192" s="28" t="s">
-        <v>412</v>
       </c>
       <c r="F192" s="29" t="n">
         <v>45572</v>
       </c>
       <c r="G192" s="30" t="s">
+        <v>412</v>
+      </c>
+      <c r="H192" s="30" t="s">
         <v>413</v>
       </c>
-      <c r="H192" s="30" t="s">
+      <c r="I192" s="30" t="s">
         <v>414</v>
       </c>
-      <c r="I192" s="30" t="s">
-        <v>415</v>
-      </c>
       <c r="J192" s="31" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="K192" s="31"/>
       <c r="L192" s="31"/>
@@ -11343,10 +11337,10 @@
         <v>70</v>
       </c>
       <c r="D193" s="27" t="s">
+        <v>415</v>
+      </c>
+      <c r="E193" s="28" t="s">
         <v>416</v>
-      </c>
-      <c r="E193" s="28" t="s">
-        <v>417</v>
       </c>
       <c r="F193" s="29"/>
       <c r="G193" s="30"/>
@@ -11380,10 +11374,10 @@
         <v>79</v>
       </c>
       <c r="D194" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="E194" s="28" t="s">
         <v>418</v>
-      </c>
-      <c r="E194" s="28" t="s">
-        <v>419</v>
       </c>
       <c r="F194" s="29"/>
       <c r="G194" s="30"/>
@@ -11417,10 +11411,10 @@
         <v>88</v>
       </c>
       <c r="D195" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="E195" s="28" t="s">
         <v>420</v>
-      </c>
-      <c r="E195" s="28" t="s">
-        <v>421</v>
       </c>
       <c r="F195" s="29"/>
       <c r="G195" s="30"/>
@@ -11451,28 +11445,28 @@
         <v>46</v>
       </c>
       <c r="C196" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D196" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="E196" s="28" t="s">
         <v>422</v>
-      </c>
-      <c r="E196" s="28" t="s">
-        <v>423</v>
       </c>
       <c r="F196" s="29" t="n">
         <v>45572</v>
       </c>
       <c r="G196" s="30" t="s">
+        <v>423</v>
+      </c>
+      <c r="H196" s="30" t="s">
         <v>424</v>
       </c>
-      <c r="H196" s="30" t="s">
+      <c r="I196" s="30" t="s">
         <v>425</v>
       </c>
-      <c r="I196" s="30" t="s">
-        <v>426</v>
-      </c>
       <c r="J196" s="31" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="K196" s="31"/>
       <c r="L196" s="31"/>
@@ -11486,310 +11480,310 @@
       <c r="T196" s="31"/>
       <c r="U196" s="32"/>
       <c r="V196" s="33"/>
-      <c r="W196" s="38" t="s">
+      <c r="W196" s="37" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A197" s="39" t="n">
+      <c r="A197" s="38" t="n">
         <v>376</v>
       </c>
-      <c r="B197" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C197" s="40" t="s">
+      <c r="B197" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C197" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="D197" s="40" t="s">
+      <c r="D197" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="E197" s="40" t="s">
         <v>427</v>
       </c>
-      <c r="E197" s="41" t="s">
+      <c r="F197" s="41"/>
+      <c r="G197" s="42"/>
+      <c r="H197" s="42"/>
+      <c r="I197" s="42"/>
+      <c r="J197" s="43"/>
+      <c r="K197" s="43"/>
+      <c r="L197" s="43"/>
+      <c r="M197" s="43"/>
+      <c r="N197" s="43"/>
+      <c r="O197" s="43"/>
+      <c r="P197" s="43"/>
+      <c r="Q197" s="43"/>
+      <c r="R197" s="43"/>
+      <c r="S197" s="43"/>
+      <c r="T197" s="43"/>
+      <c r="U197" s="44"/>
+      <c r="V197" s="45"/>
+      <c r="W197" s="46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A198" s="47" t="n">
+        <v>417</v>
+      </c>
+      <c r="B198" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C198" s="48" t="s">
         <v>428</v>
       </c>
-      <c r="F197" s="42"/>
-      <c r="G197" s="43"/>
-      <c r="H197" s="43"/>
-      <c r="I197" s="43"/>
-      <c r="J197" s="44"/>
-      <c r="K197" s="44"/>
-      <c r="L197" s="44"/>
-      <c r="M197" s="44"/>
-      <c r="N197" s="44"/>
-      <c r="O197" s="44"/>
-      <c r="P197" s="44"/>
-      <c r="Q197" s="44"/>
-      <c r="R197" s="44"/>
-      <c r="S197" s="44"/>
-      <c r="T197" s="44"/>
-      <c r="U197" s="45"/>
-      <c r="V197" s="46"/>
-      <c r="W197" s="47" t="s">
+      <c r="D198" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="E198" s="49" t="s">
+        <v>430</v>
+      </c>
+      <c r="F198" s="50"/>
+      <c r="G198" s="51"/>
+      <c r="H198" s="51"/>
+      <c r="I198" s="51"/>
+      <c r="J198" s="52"/>
+      <c r="K198" s="52"/>
+      <c r="L198" s="52"/>
+      <c r="M198" s="52"/>
+      <c r="N198" s="52"/>
+      <c r="O198" s="52"/>
+      <c r="P198" s="52"/>
+      <c r="Q198" s="52"/>
+      <c r="R198" s="52"/>
+      <c r="S198" s="52"/>
+      <c r="T198" s="52"/>
+      <c r="U198" s="53"/>
+      <c r="V198" s="54"/>
+      <c r="W198" s="55" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A198" s="48" t="n">
-        <v>417</v>
-      </c>
-      <c r="B198" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C198" s="49" t="s">
-        <v>429</v>
-      </c>
-      <c r="D198" s="27" t="s">
-        <v>430</v>
-      </c>
-      <c r="E198" s="50" t="s">
+    <row r="199" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A199" s="47" t="n">
+        <v>418</v>
+      </c>
+      <c r="B199" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C199" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="D199" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="F198" s="51"/>
-      <c r="G198" s="52"/>
-      <c r="H198" s="52"/>
-      <c r="I198" s="52"/>
-      <c r="J198" s="53"/>
-      <c r="K198" s="53"/>
-      <c r="L198" s="53"/>
-      <c r="M198" s="53"/>
-      <c r="N198" s="53"/>
-      <c r="O198" s="53"/>
-      <c r="P198" s="53"/>
-      <c r="Q198" s="53"/>
-      <c r="R198" s="53"/>
-      <c r="S198" s="53"/>
-      <c r="T198" s="53"/>
-      <c r="U198" s="54"/>
-      <c r="V198" s="55"/>
-      <c r="W198" s="56" t="s">
+      <c r="E199" s="28" t="s">
+        <v>432</v>
+      </c>
+      <c r="F199" s="50"/>
+      <c r="G199" s="51"/>
+      <c r="H199" s="51"/>
+      <c r="I199" s="51"/>
+      <c r="J199" s="52"/>
+      <c r="K199" s="52"/>
+      <c r="L199" s="52"/>
+      <c r="M199" s="52"/>
+      <c r="N199" s="52"/>
+      <c r="O199" s="52"/>
+      <c r="P199" s="52"/>
+      <c r="Q199" s="52"/>
+      <c r="R199" s="52"/>
+      <c r="S199" s="52"/>
+      <c r="T199" s="52"/>
+      <c r="U199" s="53"/>
+      <c r="V199" s="54"/>
+      <c r="W199" s="55" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A199" s="48" t="n">
-        <v>418</v>
-      </c>
-      <c r="B199" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C199" s="49" t="s">
-        <v>429</v>
-      </c>
-      <c r="D199" s="27" t="s">
-        <v>432</v>
-      </c>
-      <c r="E199" s="28" t="s">
+    <row r="200" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A200" s="47" t="n">
+        <v>419</v>
+      </c>
+      <c r="B200" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C200" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="D200" s="27" t="s">
         <v>433</v>
       </c>
-      <c r="F199" s="51"/>
-      <c r="G199" s="52"/>
-      <c r="H199" s="52"/>
-      <c r="I199" s="52"/>
-      <c r="J199" s="53"/>
-      <c r="K199" s="53"/>
-      <c r="L199" s="53"/>
-      <c r="M199" s="53"/>
-      <c r="N199" s="53"/>
-      <c r="O199" s="53"/>
-      <c r="P199" s="53"/>
-      <c r="Q199" s="53"/>
-      <c r="R199" s="53"/>
-      <c r="S199" s="53"/>
-      <c r="T199" s="53"/>
-      <c r="U199" s="54"/>
-      <c r="V199" s="55"/>
-      <c r="W199" s="56" t="s">
+      <c r="E200" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="F200" s="50"/>
+      <c r="G200" s="51"/>
+      <c r="H200" s="51"/>
+      <c r="I200" s="51"/>
+      <c r="J200" s="52"/>
+      <c r="K200" s="52"/>
+      <c r="L200" s="52"/>
+      <c r="M200" s="52"/>
+      <c r="N200" s="52"/>
+      <c r="O200" s="52"/>
+      <c r="P200" s="52"/>
+      <c r="Q200" s="52"/>
+      <c r="R200" s="52"/>
+      <c r="S200" s="52"/>
+      <c r="T200" s="52"/>
+      <c r="U200" s="53"/>
+      <c r="V200" s="54"/>
+      <c r="W200" s="55" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A200" s="48" t="n">
-        <v>419</v>
-      </c>
-      <c r="B200" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C200" s="49" t="s">
-        <v>429</v>
-      </c>
-      <c r="D200" s="27" t="s">
-        <v>434</v>
-      </c>
-      <c r="E200" s="28" t="s">
+    <row r="201" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A201" s="47" t="n">
+        <v>423</v>
+      </c>
+      <c r="B201" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C201" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="D201" s="27" t="s">
         <v>435</v>
-      </c>
-      <c r="F200" s="51"/>
-      <c r="G200" s="52"/>
-      <c r="H200" s="52"/>
-      <c r="I200" s="52"/>
-      <c r="J200" s="53"/>
-      <c r="K200" s="53"/>
-      <c r="L200" s="53"/>
-      <c r="M200" s="53"/>
-      <c r="N200" s="53"/>
-      <c r="O200" s="53"/>
-      <c r="P200" s="53"/>
-      <c r="Q200" s="53"/>
-      <c r="R200" s="53"/>
-      <c r="S200" s="53"/>
-      <c r="T200" s="53"/>
-      <c r="U200" s="54"/>
-      <c r="V200" s="55"/>
-      <c r="W200" s="56" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A201" s="48" t="n">
-        <v>423</v>
-      </c>
-      <c r="B201" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C201" s="49" t="s">
-        <v>429</v>
-      </c>
-      <c r="D201" s="27" t="s">
-        <v>436</v>
       </c>
       <c r="E201" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="F201" s="51"/>
-      <c r="G201" s="52"/>
-      <c r="H201" s="52"/>
-      <c r="I201" s="52"/>
-      <c r="J201" s="53"/>
-      <c r="K201" s="53"/>
-      <c r="L201" s="53"/>
-      <c r="M201" s="53"/>
-      <c r="N201" s="53"/>
-      <c r="O201" s="53"/>
-      <c r="P201" s="53"/>
-      <c r="Q201" s="53"/>
-      <c r="R201" s="53"/>
-      <c r="S201" s="53"/>
-      <c r="T201" s="53"/>
-      <c r="U201" s="54"/>
-      <c r="V201" s="55"/>
-      <c r="W201" s="56" t="s">
+      <c r="F201" s="50"/>
+      <c r="G201" s="51"/>
+      <c r="H201" s="51"/>
+      <c r="I201" s="51"/>
+      <c r="J201" s="52"/>
+      <c r="K201" s="52"/>
+      <c r="L201" s="52"/>
+      <c r="M201" s="52"/>
+      <c r="N201" s="52"/>
+      <c r="O201" s="52"/>
+      <c r="P201" s="52"/>
+      <c r="Q201" s="52"/>
+      <c r="R201" s="52"/>
+      <c r="S201" s="52"/>
+      <c r="T201" s="52"/>
+      <c r="U201" s="53"/>
+      <c r="V201" s="54"/>
+      <c r="W201" s="55" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A202" s="48" t="n">
+      <c r="A202" s="47" t="n">
         <v>424</v>
       </c>
-      <c r="B202" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C202" s="49" t="s">
-        <v>429</v>
+      <c r="B202" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C202" s="48" t="s">
+        <v>428</v>
       </c>
       <c r="D202" s="27" t="s">
+        <v>436</v>
+      </c>
+      <c r="E202" s="35" t="s">
+        <v>112</v>
+      </c>
+      <c r="F202" s="50"/>
+      <c r="G202" s="51"/>
+      <c r="H202" s="51"/>
+      <c r="I202" s="51"/>
+      <c r="J202" s="52"/>
+      <c r="K202" s="52"/>
+      <c r="L202" s="52"/>
+      <c r="M202" s="52"/>
+      <c r="N202" s="52"/>
+      <c r="O202" s="52"/>
+      <c r="P202" s="52"/>
+      <c r="Q202" s="52"/>
+      <c r="R202" s="52"/>
+      <c r="S202" s="52"/>
+      <c r="T202" s="52"/>
+      <c r="U202" s="53"/>
+      <c r="V202" s="54"/>
+      <c r="W202" s="55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A203" s="47" t="n">
+        <v>425</v>
+      </c>
+      <c r="B203" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C203" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="D203" s="27" t="s">
         <v>437</v>
       </c>
-      <c r="E202" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="F202" s="51"/>
-      <c r="G202" s="52"/>
-      <c r="H202" s="52"/>
-      <c r="I202" s="52"/>
-      <c r="J202" s="53"/>
-      <c r="K202" s="53"/>
-      <c r="L202" s="53"/>
-      <c r="M202" s="53"/>
-      <c r="N202" s="53"/>
-      <c r="O202" s="53"/>
-      <c r="P202" s="53"/>
-      <c r="Q202" s="53"/>
-      <c r="R202" s="53"/>
-      <c r="S202" s="53"/>
-      <c r="T202" s="53"/>
-      <c r="U202" s="54"/>
-      <c r="V202" s="55"/>
-      <c r="W202" s="56" t="s">
+      <c r="E203" s="28" t="s">
+        <v>438</v>
+      </c>
+      <c r="F203" s="50"/>
+      <c r="G203" s="51"/>
+      <c r="H203" s="51"/>
+      <c r="I203" s="51"/>
+      <c r="J203" s="52"/>
+      <c r="K203" s="52"/>
+      <c r="L203" s="52"/>
+      <c r="M203" s="52"/>
+      <c r="N203" s="52"/>
+      <c r="O203" s="52"/>
+      <c r="P203" s="52"/>
+      <c r="Q203" s="52"/>
+      <c r="R203" s="52"/>
+      <c r="S203" s="52"/>
+      <c r="T203" s="52"/>
+      <c r="U203" s="53"/>
+      <c r="V203" s="54"/>
+      <c r="W203" s="55" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A203" s="48" t="n">
-        <v>425</v>
-      </c>
-      <c r="B203" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C203" s="49" t="s">
-        <v>429</v>
-      </c>
-      <c r="D203" s="27" t="s">
-        <v>438</v>
-      </c>
-      <c r="E203" s="28" t="s">
+    <row r="204" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A204" s="47" t="n">
+        <v>426</v>
+      </c>
+      <c r="B204" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C204" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="D204" s="27" t="s">
         <v>439</v>
       </c>
-      <c r="F203" s="51"/>
-      <c r="G203" s="52"/>
-      <c r="H203" s="52"/>
-      <c r="I203" s="52"/>
-      <c r="J203" s="53"/>
-      <c r="K203" s="53"/>
-      <c r="L203" s="53"/>
-      <c r="M203" s="53"/>
-      <c r="N203" s="53"/>
-      <c r="O203" s="53"/>
-      <c r="P203" s="53"/>
-      <c r="Q203" s="53"/>
-      <c r="R203" s="53"/>
-      <c r="S203" s="53"/>
-      <c r="T203" s="53"/>
-      <c r="U203" s="54"/>
-      <c r="V203" s="55"/>
-      <c r="W203" s="56" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A204" s="48" t="n">
-        <v>426</v>
-      </c>
-      <c r="B204" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C204" s="49" t="s">
-        <v>429</v>
-      </c>
-      <c r="D204" s="27" t="s">
+      <c r="E204" s="28" t="s">
         <v>440</v>
       </c>
-      <c r="E204" s="28" t="s">
-        <v>441</v>
-      </c>
-      <c r="F204" s="51"/>
-      <c r="G204" s="52"/>
-      <c r="H204" s="52"/>
-      <c r="I204" s="52"/>
-      <c r="J204" s="53"/>
-      <c r="K204" s="53"/>
-      <c r="L204" s="53"/>
-      <c r="M204" s="53"/>
-      <c r="N204" s="53"/>
-      <c r="O204" s="53"/>
-      <c r="P204" s="53"/>
-      <c r="Q204" s="53"/>
-      <c r="R204" s="53"/>
-      <c r="S204" s="53"/>
-      <c r="T204" s="53"/>
-      <c r="U204" s="54"/>
-      <c r="V204" s="55"/>
-      <c r="W204" s="56" t="s">
+      <c r="F204" s="50"/>
+      <c r="G204" s="51"/>
+      <c r="H204" s="51"/>
+      <c r="I204" s="51"/>
+      <c r="J204" s="52"/>
+      <c r="K204" s="52"/>
+      <c r="L204" s="52"/>
+      <c r="M204" s="52"/>
+      <c r="N204" s="52"/>
+      <c r="O204" s="52"/>
+      <c r="P204" s="52"/>
+      <c r="Q204" s="52"/>
+      <c r="R204" s="52"/>
+      <c r="S204" s="52"/>
+      <c r="T204" s="52"/>
+      <c r="U204" s="53"/>
+      <c r="V204" s="54"/>
+      <c r="W204" s="55" t="s">
         <v>99</v>
       </c>
       <c r="Y204" s="0" t="n">
         <v>6</v>
       </c>
       <c r="Z204" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA204" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("VALIDAZIONE_CDA2_RAP_CT",Y204,"_KO")</f>
@@ -11797,39 +11791,39 @@
       </c>
     </row>
     <row r="205" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A205" s="48" t="n">
+      <c r="A205" s="47" t="n">
         <v>427</v>
       </c>
-      <c r="B205" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C205" s="49" t="s">
-        <v>429</v>
+      <c r="B205" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C205" s="48" t="s">
+        <v>428</v>
       </c>
       <c r="D205" s="27" t="s">
+        <v>442</v>
+      </c>
+      <c r="E205" s="28" t="s">
         <v>443</v>
       </c>
-      <c r="E205" s="28" t="s">
-        <v>444</v>
-      </c>
-      <c r="F205" s="51"/>
-      <c r="G205" s="52"/>
-      <c r="H205" s="52"/>
-      <c r="I205" s="52"/>
-      <c r="J205" s="53"/>
-      <c r="K205" s="53"/>
-      <c r="L205" s="53"/>
-      <c r="M205" s="53"/>
-      <c r="N205" s="53"/>
-      <c r="O205" s="53"/>
-      <c r="P205" s="53"/>
-      <c r="Q205" s="53"/>
-      <c r="R205" s="53"/>
-      <c r="S205" s="53"/>
-      <c r="T205" s="53"/>
-      <c r="U205" s="54"/>
-      <c r="V205" s="55"/>
-      <c r="W205" s="56" t="s">
+      <c r="F205" s="50"/>
+      <c r="G205" s="51"/>
+      <c r="H205" s="51"/>
+      <c r="I205" s="51"/>
+      <c r="J205" s="52"/>
+      <c r="K205" s="52"/>
+      <c r="L205" s="52"/>
+      <c r="M205" s="52"/>
+      <c r="N205" s="52"/>
+      <c r="O205" s="52"/>
+      <c r="P205" s="52"/>
+      <c r="Q205" s="52"/>
+      <c r="R205" s="52"/>
+      <c r="S205" s="52"/>
+      <c r="T205" s="52"/>
+      <c r="U205" s="53"/>
+      <c r="V205" s="54"/>
+      <c r="W205" s="55" t="s">
         <v>99</v>
       </c>
       <c r="Y205" s="0" t="n">
@@ -11837,7 +11831,7 @@
         <v>7</v>
       </c>
       <c r="Z205" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA205" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("VALIDAZIONE_CDA2_RAP_CT",Y205,"_KO")</f>
@@ -11845,39 +11839,39 @@
       </c>
     </row>
     <row r="206" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A206" s="48" t="n">
+      <c r="A206" s="47" t="n">
         <v>428</v>
       </c>
-      <c r="B206" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C206" s="49" t="s">
-        <v>429</v>
+      <c r="B206" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C206" s="48" t="s">
+        <v>428</v>
       </c>
       <c r="D206" s="27" t="s">
+        <v>444</v>
+      </c>
+      <c r="E206" s="28" t="s">
         <v>445</v>
       </c>
-      <c r="E206" s="28" t="s">
-        <v>446</v>
-      </c>
-      <c r="F206" s="51"/>
-      <c r="G206" s="52"/>
-      <c r="H206" s="52"/>
-      <c r="I206" s="52"/>
-      <c r="J206" s="53"/>
-      <c r="K206" s="53"/>
-      <c r="L206" s="53"/>
-      <c r="M206" s="53"/>
-      <c r="N206" s="53"/>
-      <c r="O206" s="53"/>
-      <c r="P206" s="53"/>
-      <c r="Q206" s="53"/>
-      <c r="R206" s="53"/>
-      <c r="S206" s="53"/>
-      <c r="T206" s="53"/>
-      <c r="U206" s="54"/>
-      <c r="V206" s="55"/>
-      <c r="W206" s="56" t="s">
+      <c r="F206" s="50"/>
+      <c r="G206" s="51"/>
+      <c r="H206" s="51"/>
+      <c r="I206" s="51"/>
+      <c r="J206" s="52"/>
+      <c r="K206" s="52"/>
+      <c r="L206" s="52"/>
+      <c r="M206" s="52"/>
+      <c r="N206" s="52"/>
+      <c r="O206" s="52"/>
+      <c r="P206" s="52"/>
+      <c r="Q206" s="52"/>
+      <c r="R206" s="52"/>
+      <c r="S206" s="52"/>
+      <c r="T206" s="52"/>
+      <c r="U206" s="53"/>
+      <c r="V206" s="54"/>
+      <c r="W206" s="55" t="s">
         <v>99</v>
       </c>
       <c r="Y206" s="0" t="n">
@@ -11885,7 +11879,7 @@
         <v>8</v>
       </c>
       <c r="Z206" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA206" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("VALIDAZIONE_CDA2_RAP_CT",Y206,"_KO")</f>
@@ -11893,39 +11887,39 @@
       </c>
     </row>
     <row r="207" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A207" s="48" t="n">
+      <c r="A207" s="47" t="n">
         <v>429</v>
       </c>
-      <c r="B207" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C207" s="49" t="s">
-        <v>429</v>
+      <c r="B207" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C207" s="48" t="s">
+        <v>428</v>
       </c>
       <c r="D207" s="27" t="s">
+        <v>446</v>
+      </c>
+      <c r="E207" s="28" t="s">
         <v>447</v>
       </c>
-      <c r="E207" s="28" t="s">
-        <v>448</v>
-      </c>
-      <c r="F207" s="51"/>
-      <c r="G207" s="52"/>
-      <c r="H207" s="52"/>
-      <c r="I207" s="52"/>
-      <c r="J207" s="53"/>
-      <c r="K207" s="53"/>
-      <c r="L207" s="53"/>
-      <c r="M207" s="53"/>
-      <c r="N207" s="53"/>
-      <c r="O207" s="53"/>
-      <c r="P207" s="53"/>
-      <c r="Q207" s="53"/>
-      <c r="R207" s="53"/>
-      <c r="S207" s="53"/>
-      <c r="T207" s="53"/>
-      <c r="U207" s="54"/>
-      <c r="V207" s="55"/>
-      <c r="W207" s="56" t="s">
+      <c r="F207" s="50"/>
+      <c r="G207" s="51"/>
+      <c r="H207" s="51"/>
+      <c r="I207" s="51"/>
+      <c r="J207" s="52"/>
+      <c r="K207" s="52"/>
+      <c r="L207" s="52"/>
+      <c r="M207" s="52"/>
+      <c r="N207" s="52"/>
+      <c r="O207" s="52"/>
+      <c r="P207" s="52"/>
+      <c r="Q207" s="52"/>
+      <c r="R207" s="52"/>
+      <c r="S207" s="52"/>
+      <c r="T207" s="52"/>
+      <c r="U207" s="53"/>
+      <c r="V207" s="54"/>
+      <c r="W207" s="55" t="s">
         <v>99</v>
       </c>
       <c r="Y207" s="0" t="n">
@@ -11933,7 +11927,7 @@
         <v>9</v>
       </c>
       <c r="Z207" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA207" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("VALIDAZIONE_CDA2_RAP_CT",Y207,"_KO")</f>
@@ -11941,39 +11935,39 @@
       </c>
     </row>
     <row r="208" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A208" s="48" t="n">
+      <c r="A208" s="47" t="n">
         <v>430</v>
       </c>
-      <c r="B208" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C208" s="49" t="s">
-        <v>429</v>
+      <c r="B208" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C208" s="48" t="s">
+        <v>428</v>
       </c>
       <c r="D208" s="27" t="s">
+        <v>448</v>
+      </c>
+      <c r="E208" s="28" t="s">
         <v>449</v>
       </c>
-      <c r="E208" s="28" t="s">
-        <v>450</v>
-      </c>
-      <c r="F208" s="51"/>
-      <c r="G208" s="52"/>
-      <c r="H208" s="52"/>
-      <c r="I208" s="52"/>
-      <c r="J208" s="53"/>
-      <c r="K208" s="53"/>
-      <c r="L208" s="53"/>
-      <c r="M208" s="53"/>
-      <c r="N208" s="53"/>
-      <c r="O208" s="53"/>
-      <c r="P208" s="53"/>
-      <c r="Q208" s="53"/>
-      <c r="R208" s="53"/>
-      <c r="S208" s="53"/>
-      <c r="T208" s="53"/>
-      <c r="U208" s="54"/>
-      <c r="V208" s="55"/>
-      <c r="W208" s="56" t="s">
+      <c r="F208" s="50"/>
+      <c r="G208" s="51"/>
+      <c r="H208" s="51"/>
+      <c r="I208" s="51"/>
+      <c r="J208" s="52"/>
+      <c r="K208" s="52"/>
+      <c r="L208" s="52"/>
+      <c r="M208" s="52"/>
+      <c r="N208" s="52"/>
+      <c r="O208" s="52"/>
+      <c r="P208" s="52"/>
+      <c r="Q208" s="52"/>
+      <c r="R208" s="52"/>
+      <c r="S208" s="52"/>
+      <c r="T208" s="52"/>
+      <c r="U208" s="53"/>
+      <c r="V208" s="54"/>
+      <c r="W208" s="55" t="s">
         <v>99</v>
       </c>
       <c r="Y208" s="0" t="n">
@@ -11981,7 +11975,7 @@
         <v>10</v>
       </c>
       <c r="Z208" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA208" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("VALIDAZIONE_CDA2_RAP_CT",Y208,"_KO")</f>
@@ -11989,39 +11983,39 @@
       </c>
     </row>
     <row r="209" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A209" s="48" t="n">
+      <c r="A209" s="47" t="n">
         <v>431</v>
       </c>
-      <c r="B209" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C209" s="49" t="s">
-        <v>429</v>
+      <c r="B209" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C209" s="48" t="s">
+        <v>428</v>
       </c>
       <c r="D209" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="E209" s="28" t="s">
         <v>451</v>
       </c>
-      <c r="E209" s="28" t="s">
-        <v>452</v>
-      </c>
-      <c r="F209" s="51"/>
-      <c r="G209" s="52"/>
-      <c r="H209" s="52"/>
-      <c r="I209" s="52"/>
-      <c r="J209" s="53"/>
-      <c r="K209" s="53"/>
-      <c r="L209" s="53"/>
-      <c r="M209" s="53"/>
-      <c r="N209" s="53"/>
-      <c r="O209" s="53"/>
-      <c r="P209" s="53"/>
-      <c r="Q209" s="53"/>
-      <c r="R209" s="53"/>
-      <c r="S209" s="53"/>
-      <c r="T209" s="53"/>
-      <c r="U209" s="54"/>
-      <c r="V209" s="55"/>
-      <c r="W209" s="56" t="s">
+      <c r="F209" s="50"/>
+      <c r="G209" s="51"/>
+      <c r="H209" s="51"/>
+      <c r="I209" s="51"/>
+      <c r="J209" s="52"/>
+      <c r="K209" s="52"/>
+      <c r="L209" s="52"/>
+      <c r="M209" s="52"/>
+      <c r="N209" s="52"/>
+      <c r="O209" s="52"/>
+      <c r="P209" s="52"/>
+      <c r="Q209" s="52"/>
+      <c r="R209" s="52"/>
+      <c r="S209" s="52"/>
+      <c r="T209" s="52"/>
+      <c r="U209" s="53"/>
+      <c r="V209" s="54"/>
+      <c r="W209" s="55" t="s">
         <v>99</v>
       </c>
       <c r="Y209" s="0" t="n">
@@ -12029,7 +12023,7 @@
         <v>11</v>
       </c>
       <c r="Z209" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA209" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("VALIDAZIONE_CDA2_RAP_CT",Y209,"_KO")</f>
@@ -12037,39 +12031,39 @@
       </c>
     </row>
     <row r="210" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A210" s="48" t="n">
+      <c r="A210" s="47" t="n">
         <v>432</v>
       </c>
-      <c r="B210" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C210" s="49" t="s">
-        <v>429</v>
+      <c r="B210" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C210" s="48" t="s">
+        <v>428</v>
       </c>
       <c r="D210" s="27" t="s">
+        <v>452</v>
+      </c>
+      <c r="E210" s="28" t="s">
         <v>453</v>
       </c>
-      <c r="E210" s="28" t="s">
-        <v>454</v>
-      </c>
-      <c r="F210" s="51"/>
-      <c r="G210" s="52"/>
-      <c r="H210" s="52"/>
-      <c r="I210" s="52"/>
-      <c r="J210" s="53"/>
-      <c r="K210" s="53"/>
-      <c r="L210" s="53"/>
-      <c r="M210" s="53"/>
-      <c r="N210" s="53"/>
-      <c r="O210" s="53"/>
-      <c r="P210" s="53"/>
-      <c r="Q210" s="53"/>
-      <c r="R210" s="53"/>
-      <c r="S210" s="53"/>
-      <c r="T210" s="53"/>
-      <c r="U210" s="54"/>
-      <c r="V210" s="55"/>
-      <c r="W210" s="56" t="s">
+      <c r="F210" s="50"/>
+      <c r="G210" s="51"/>
+      <c r="H210" s="51"/>
+      <c r="I210" s="51"/>
+      <c r="J210" s="52"/>
+      <c r="K210" s="52"/>
+      <c r="L210" s="52"/>
+      <c r="M210" s="52"/>
+      <c r="N210" s="52"/>
+      <c r="O210" s="52"/>
+      <c r="P210" s="52"/>
+      <c r="Q210" s="52"/>
+      <c r="R210" s="52"/>
+      <c r="S210" s="52"/>
+      <c r="T210" s="52"/>
+      <c r="U210" s="53"/>
+      <c r="V210" s="54"/>
+      <c r="W210" s="55" t="s">
         <v>99</v>
       </c>
       <c r="Y210" s="0" t="n">
@@ -12077,7 +12071,7 @@
         <v>12</v>
       </c>
       <c r="Z210" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA210" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("VALIDAZIONE_CDA2_RAP_CT",Y210,"_KO")</f>
@@ -12085,39 +12079,39 @@
       </c>
     </row>
     <row r="211" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A211" s="48" t="n">
+      <c r="A211" s="47" t="n">
         <v>433</v>
       </c>
-      <c r="B211" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C211" s="49" t="s">
-        <v>429</v>
+      <c r="B211" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C211" s="48" t="s">
+        <v>428</v>
       </c>
       <c r="D211" s="27" t="s">
+        <v>454</v>
+      </c>
+      <c r="E211" s="28" t="s">
         <v>455</v>
       </c>
-      <c r="E211" s="28" t="s">
-        <v>456</v>
-      </c>
-      <c r="F211" s="51"/>
-      <c r="G211" s="52"/>
-      <c r="H211" s="52"/>
-      <c r="I211" s="52"/>
-      <c r="J211" s="53"/>
-      <c r="K211" s="53"/>
-      <c r="L211" s="53"/>
-      <c r="M211" s="53"/>
-      <c r="N211" s="53"/>
-      <c r="O211" s="53"/>
-      <c r="P211" s="53"/>
-      <c r="Q211" s="53"/>
-      <c r="R211" s="53"/>
-      <c r="S211" s="53"/>
-      <c r="T211" s="53"/>
-      <c r="U211" s="54"/>
-      <c r="V211" s="55"/>
-      <c r="W211" s="56" t="s">
+      <c r="F211" s="50"/>
+      <c r="G211" s="51"/>
+      <c r="H211" s="51"/>
+      <c r="I211" s="51"/>
+      <c r="J211" s="52"/>
+      <c r="K211" s="52"/>
+      <c r="L211" s="52"/>
+      <c r="M211" s="52"/>
+      <c r="N211" s="52"/>
+      <c r="O211" s="52"/>
+      <c r="P211" s="52"/>
+      <c r="Q211" s="52"/>
+      <c r="R211" s="52"/>
+      <c r="S211" s="52"/>
+      <c r="T211" s="52"/>
+      <c r="U211" s="53"/>
+      <c r="V211" s="54"/>
+      <c r="W211" s="55" t="s">
         <v>99</v>
       </c>
       <c r="Y211" s="0" t="n">
@@ -12125,7 +12119,7 @@
         <v>13</v>
       </c>
       <c r="Z211" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA211" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("VALIDAZIONE_CDA2_RAP_CT",Y211,"_KO")</f>
@@ -12133,39 +12127,39 @@
       </c>
     </row>
     <row r="212" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A212" s="48" t="n">
+      <c r="A212" s="47" t="n">
         <v>434</v>
       </c>
-      <c r="B212" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C212" s="49" t="s">
-        <v>429</v>
+      <c r="B212" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C212" s="48" t="s">
+        <v>428</v>
       </c>
       <c r="D212" s="27" t="s">
+        <v>456</v>
+      </c>
+      <c r="E212" s="28" t="s">
         <v>457</v>
       </c>
-      <c r="E212" s="28" t="s">
-        <v>458</v>
-      </c>
-      <c r="F212" s="51"/>
-      <c r="G212" s="52"/>
-      <c r="H212" s="52"/>
-      <c r="I212" s="52"/>
-      <c r="J212" s="53"/>
-      <c r="K212" s="53"/>
-      <c r="L212" s="53"/>
-      <c r="M212" s="53"/>
-      <c r="N212" s="53"/>
-      <c r="O212" s="53"/>
-      <c r="P212" s="53"/>
-      <c r="Q212" s="53"/>
-      <c r="R212" s="53"/>
-      <c r="S212" s="53"/>
-      <c r="T212" s="53"/>
-      <c r="U212" s="54"/>
-      <c r="V212" s="55"/>
-      <c r="W212" s="56" t="s">
+      <c r="F212" s="50"/>
+      <c r="G212" s="51"/>
+      <c r="H212" s="51"/>
+      <c r="I212" s="51"/>
+      <c r="J212" s="52"/>
+      <c r="K212" s="52"/>
+      <c r="L212" s="52"/>
+      <c r="M212" s="52"/>
+      <c r="N212" s="52"/>
+      <c r="O212" s="52"/>
+      <c r="P212" s="52"/>
+      <c r="Q212" s="52"/>
+      <c r="R212" s="52"/>
+      <c r="S212" s="52"/>
+      <c r="T212" s="52"/>
+      <c r="U212" s="53"/>
+      <c r="V212" s="54"/>
+      <c r="W212" s="55" t="s">
         <v>99</v>
       </c>
       <c r="Y212" s="0" t="n">
@@ -12173,7 +12167,7 @@
         <v>14</v>
       </c>
       <c r="Z212" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA212" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("VALIDAZIONE_CDA2_RAP_CT",Y212,"_KO")</f>
@@ -12181,39 +12175,39 @@
       </c>
     </row>
     <row r="213" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A213" s="48" t="n">
+      <c r="A213" s="47" t="n">
         <v>435</v>
       </c>
-      <c r="B213" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C213" s="49" t="s">
-        <v>429</v>
+      <c r="B213" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C213" s="48" t="s">
+        <v>428</v>
       </c>
       <c r="D213" s="27" t="s">
+        <v>458</v>
+      </c>
+      <c r="E213" s="28" t="s">
         <v>459</v>
       </c>
-      <c r="E213" s="28" t="s">
-        <v>460</v>
-      </c>
-      <c r="F213" s="51"/>
-      <c r="G213" s="52"/>
-      <c r="H213" s="52"/>
-      <c r="I213" s="52"/>
-      <c r="J213" s="53"/>
-      <c r="K213" s="53"/>
-      <c r="L213" s="53"/>
-      <c r="M213" s="53"/>
-      <c r="N213" s="53"/>
-      <c r="O213" s="53"/>
-      <c r="P213" s="53"/>
-      <c r="Q213" s="53"/>
-      <c r="R213" s="53"/>
-      <c r="S213" s="53"/>
-      <c r="T213" s="53"/>
-      <c r="U213" s="54"/>
-      <c r="V213" s="55"/>
-      <c r="W213" s="56" t="s">
+      <c r="F213" s="50"/>
+      <c r="G213" s="51"/>
+      <c r="H213" s="51"/>
+      <c r="I213" s="51"/>
+      <c r="J213" s="52"/>
+      <c r="K213" s="52"/>
+      <c r="L213" s="52"/>
+      <c r="M213" s="52"/>
+      <c r="N213" s="52"/>
+      <c r="O213" s="52"/>
+      <c r="P213" s="52"/>
+      <c r="Q213" s="52"/>
+      <c r="R213" s="52"/>
+      <c r="S213" s="52"/>
+      <c r="T213" s="52"/>
+      <c r="U213" s="53"/>
+      <c r="V213" s="54"/>
+      <c r="W213" s="55" t="s">
         <v>99</v>
       </c>
       <c r="Y213" s="0" t="n">
@@ -12221,7 +12215,7 @@
         <v>15</v>
       </c>
       <c r="Z213" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA213" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("VALIDAZIONE_CDA2_RAP_CT",Y213,"_KO")</f>
@@ -12229,39 +12223,39 @@
       </c>
     </row>
     <row r="214" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A214" s="48" t="n">
+      <c r="A214" s="47" t="n">
         <v>436</v>
       </c>
-      <c r="B214" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C214" s="49" t="s">
-        <v>429</v>
+      <c r="B214" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C214" s="48" t="s">
+        <v>428</v>
       </c>
       <c r="D214" s="27" t="s">
+        <v>460</v>
+      </c>
+      <c r="E214" s="28" t="s">
         <v>461</v>
       </c>
-      <c r="E214" s="28" t="s">
-        <v>462</v>
-      </c>
-      <c r="F214" s="51"/>
-      <c r="G214" s="52"/>
-      <c r="H214" s="52"/>
-      <c r="I214" s="52"/>
-      <c r="J214" s="53"/>
-      <c r="K214" s="53"/>
-      <c r="L214" s="53"/>
-      <c r="M214" s="53"/>
-      <c r="N214" s="53"/>
-      <c r="O214" s="53"/>
-      <c r="P214" s="53"/>
-      <c r="Q214" s="53"/>
-      <c r="R214" s="53"/>
-      <c r="S214" s="53"/>
-      <c r="T214" s="53"/>
-      <c r="U214" s="54"/>
-      <c r="V214" s="55"/>
-      <c r="W214" s="56" t="s">
+      <c r="F214" s="50"/>
+      <c r="G214" s="51"/>
+      <c r="H214" s="51"/>
+      <c r="I214" s="51"/>
+      <c r="J214" s="52"/>
+      <c r="K214" s="52"/>
+      <c r="L214" s="52"/>
+      <c r="M214" s="52"/>
+      <c r="N214" s="52"/>
+      <c r="O214" s="52"/>
+      <c r="P214" s="52"/>
+      <c r="Q214" s="52"/>
+      <c r="R214" s="52"/>
+      <c r="S214" s="52"/>
+      <c r="T214" s="52"/>
+      <c r="U214" s="53"/>
+      <c r="V214" s="54"/>
+      <c r="W214" s="55" t="s">
         <v>99</v>
       </c>
       <c r="Y214" s="0" t="n">
@@ -12269,7 +12263,7 @@
         <v>16</v>
       </c>
       <c r="Z214" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA214" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("VALIDAZIONE_CDA2_RAP_CT",Y214,"_KO")</f>
@@ -12277,39 +12271,39 @@
       </c>
     </row>
     <row r="215" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A215" s="48" t="n">
+      <c r="A215" s="47" t="n">
         <v>437</v>
       </c>
-      <c r="B215" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C215" s="49" t="s">
-        <v>429</v>
+      <c r="B215" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C215" s="48" t="s">
+        <v>428</v>
       </c>
       <c r="D215" s="27" t="s">
+        <v>462</v>
+      </c>
+      <c r="E215" s="28" t="s">
         <v>463</v>
       </c>
-      <c r="E215" s="28" t="s">
-        <v>464</v>
-      </c>
-      <c r="F215" s="51"/>
-      <c r="G215" s="52"/>
-      <c r="H215" s="52"/>
-      <c r="I215" s="52"/>
-      <c r="J215" s="53"/>
-      <c r="K215" s="53"/>
-      <c r="L215" s="53"/>
-      <c r="M215" s="53"/>
-      <c r="N215" s="53"/>
-      <c r="O215" s="53"/>
-      <c r="P215" s="53"/>
-      <c r="Q215" s="53"/>
-      <c r="R215" s="53"/>
-      <c r="S215" s="53"/>
-      <c r="T215" s="53"/>
-      <c r="U215" s="54"/>
-      <c r="V215" s="55"/>
-      <c r="W215" s="56" t="s">
+      <c r="F215" s="50"/>
+      <c r="G215" s="51"/>
+      <c r="H215" s="51"/>
+      <c r="I215" s="51"/>
+      <c r="J215" s="52"/>
+      <c r="K215" s="52"/>
+      <c r="L215" s="52"/>
+      <c r="M215" s="52"/>
+      <c r="N215" s="52"/>
+      <c r="O215" s="52"/>
+      <c r="P215" s="52"/>
+      <c r="Q215" s="52"/>
+      <c r="R215" s="52"/>
+      <c r="S215" s="52"/>
+      <c r="T215" s="52"/>
+      <c r="U215" s="53"/>
+      <c r="V215" s="54"/>
+      <c r="W215" s="55" t="s">
         <v>99</v>
       </c>
       <c r="Y215" s="0" t="n">
@@ -12317,7 +12311,7 @@
         <v>17</v>
       </c>
       <c r="Z215" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA215" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("VALIDAZIONE_CDA2_RAP_CT",Y215,"_KO")</f>
@@ -12325,39 +12319,39 @@
       </c>
     </row>
     <row r="216" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A216" s="48" t="n">
+      <c r="A216" s="47" t="n">
         <v>438</v>
       </c>
-      <c r="B216" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C216" s="49" t="s">
-        <v>429</v>
+      <c r="B216" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C216" s="48" t="s">
+        <v>428</v>
       </c>
       <c r="D216" s="27" t="s">
+        <v>464</v>
+      </c>
+      <c r="E216" s="28" t="s">
         <v>465</v>
       </c>
-      <c r="E216" s="28" t="s">
-        <v>466</v>
-      </c>
-      <c r="F216" s="51"/>
-      <c r="G216" s="52"/>
-      <c r="H216" s="52"/>
-      <c r="I216" s="52"/>
-      <c r="J216" s="53"/>
-      <c r="K216" s="53"/>
-      <c r="L216" s="53"/>
-      <c r="M216" s="53"/>
-      <c r="N216" s="53"/>
-      <c r="O216" s="53"/>
-      <c r="P216" s="53"/>
-      <c r="Q216" s="53"/>
-      <c r="R216" s="53"/>
-      <c r="S216" s="53"/>
-      <c r="T216" s="53"/>
-      <c r="U216" s="54"/>
-      <c r="V216" s="55"/>
-      <c r="W216" s="56" t="s">
+      <c r="F216" s="50"/>
+      <c r="G216" s="51"/>
+      <c r="H216" s="51"/>
+      <c r="I216" s="51"/>
+      <c r="J216" s="52"/>
+      <c r="K216" s="52"/>
+      <c r="L216" s="52"/>
+      <c r="M216" s="52"/>
+      <c r="N216" s="52"/>
+      <c r="O216" s="52"/>
+      <c r="P216" s="52"/>
+      <c r="Q216" s="52"/>
+      <c r="R216" s="52"/>
+      <c r="S216" s="52"/>
+      <c r="T216" s="52"/>
+      <c r="U216" s="53"/>
+      <c r="V216" s="54"/>
+      <c r="W216" s="55" t="s">
         <v>99</v>
       </c>
       <c r="Y216" s="0" t="n">
@@ -12365,7 +12359,7 @@
         <v>18</v>
       </c>
       <c r="Z216" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA216" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("VALIDAZIONE_CDA2_RAP_CT",Y216,"_KO")</f>
@@ -12373,39 +12367,39 @@
       </c>
     </row>
     <row r="217" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A217" s="48" t="n">
+      <c r="A217" s="47" t="n">
         <v>439</v>
       </c>
-      <c r="B217" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C217" s="49" t="s">
-        <v>429</v>
+      <c r="B217" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C217" s="48" t="s">
+        <v>428</v>
       </c>
       <c r="D217" s="27" t="s">
+        <v>466</v>
+      </c>
+      <c r="E217" s="28" t="s">
         <v>467</v>
       </c>
-      <c r="E217" s="28" t="s">
-        <v>468</v>
-      </c>
-      <c r="F217" s="51"/>
-      <c r="G217" s="52"/>
-      <c r="H217" s="52"/>
-      <c r="I217" s="52"/>
-      <c r="J217" s="53"/>
-      <c r="K217" s="53"/>
-      <c r="L217" s="53"/>
-      <c r="M217" s="53"/>
-      <c r="N217" s="53"/>
-      <c r="O217" s="53"/>
-      <c r="P217" s="53"/>
-      <c r="Q217" s="53"/>
-      <c r="R217" s="53"/>
-      <c r="S217" s="53"/>
-      <c r="T217" s="53"/>
-      <c r="U217" s="54"/>
-      <c r="V217" s="55"/>
-      <c r="W217" s="56" t="s">
+      <c r="F217" s="50"/>
+      <c r="G217" s="51"/>
+      <c r="H217" s="51"/>
+      <c r="I217" s="51"/>
+      <c r="J217" s="52"/>
+      <c r="K217" s="52"/>
+      <c r="L217" s="52"/>
+      <c r="M217" s="52"/>
+      <c r="N217" s="52"/>
+      <c r="O217" s="52"/>
+      <c r="P217" s="52"/>
+      <c r="Q217" s="52"/>
+      <c r="R217" s="52"/>
+      <c r="S217" s="52"/>
+      <c r="T217" s="52"/>
+      <c r="U217" s="53"/>
+      <c r="V217" s="54"/>
+      <c r="W217" s="55" t="s">
         <v>99</v>
       </c>
       <c r="Y217" s="0" t="n">
@@ -12413,7 +12407,7 @@
         <v>19</v>
       </c>
       <c r="Z217" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA217" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("VALIDAZIONE_CDA2_RAP_CT",Y217,"_KO")</f>
@@ -12421,39 +12415,39 @@
       </c>
     </row>
     <row r="218" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A218" s="48" t="n">
+      <c r="A218" s="47" t="n">
         <v>440</v>
       </c>
-      <c r="B218" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C218" s="49" t="s">
-        <v>429</v>
+      <c r="B218" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C218" s="48" t="s">
+        <v>428</v>
       </c>
       <c r="D218" s="27" t="s">
+        <v>468</v>
+      </c>
+      <c r="E218" s="28" t="s">
         <v>469</v>
       </c>
-      <c r="E218" s="28" t="s">
-        <v>470</v>
-      </c>
-      <c r="F218" s="51"/>
-      <c r="G218" s="52"/>
-      <c r="H218" s="52"/>
-      <c r="I218" s="52"/>
-      <c r="J218" s="53"/>
-      <c r="K218" s="53"/>
-      <c r="L218" s="53"/>
-      <c r="M218" s="53"/>
-      <c r="N218" s="53"/>
-      <c r="O218" s="53"/>
-      <c r="P218" s="53"/>
-      <c r="Q218" s="53"/>
-      <c r="R218" s="53"/>
-      <c r="S218" s="53"/>
-      <c r="T218" s="53"/>
-      <c r="U218" s="54"/>
-      <c r="V218" s="55"/>
-      <c r="W218" s="56" t="s">
+      <c r="F218" s="50"/>
+      <c r="G218" s="51"/>
+      <c r="H218" s="51"/>
+      <c r="I218" s="51"/>
+      <c r="J218" s="52"/>
+      <c r="K218" s="52"/>
+      <c r="L218" s="52"/>
+      <c r="M218" s="52"/>
+      <c r="N218" s="52"/>
+      <c r="O218" s="52"/>
+      <c r="P218" s="52"/>
+      <c r="Q218" s="52"/>
+      <c r="R218" s="52"/>
+      <c r="S218" s="52"/>
+      <c r="T218" s="52"/>
+      <c r="U218" s="53"/>
+      <c r="V218" s="54"/>
+      <c r="W218" s="55" t="s">
         <v>99</v>
       </c>
       <c r="Y218" s="0" t="n">
@@ -12461,7 +12455,7 @@
         <v>20</v>
       </c>
       <c r="Z218" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA218" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("VALIDAZIONE_CDA2_RAP_CT",Y218,"_KO")</f>
@@ -12469,39 +12463,39 @@
       </c>
     </row>
     <row r="219" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A219" s="48" t="n">
+      <c r="A219" s="47" t="n">
         <v>441</v>
       </c>
-      <c r="B219" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C219" s="49" t="s">
-        <v>429</v>
+      <c r="B219" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C219" s="48" t="s">
+        <v>428</v>
       </c>
       <c r="D219" s="27" t="s">
+        <v>470</v>
+      </c>
+      <c r="E219" s="28" t="s">
         <v>471</v>
       </c>
-      <c r="E219" s="28" t="s">
-        <v>472</v>
-      </c>
-      <c r="F219" s="51"/>
-      <c r="G219" s="52"/>
-      <c r="H219" s="52"/>
-      <c r="I219" s="52"/>
-      <c r="J219" s="53"/>
-      <c r="K219" s="53"/>
-      <c r="L219" s="53"/>
-      <c r="M219" s="53"/>
-      <c r="N219" s="53"/>
-      <c r="O219" s="53"/>
-      <c r="P219" s="53"/>
-      <c r="Q219" s="53"/>
-      <c r="R219" s="53"/>
-      <c r="S219" s="53"/>
-      <c r="T219" s="53"/>
-      <c r="U219" s="54"/>
-      <c r="V219" s="55"/>
-      <c r="W219" s="56" t="s">
+      <c r="F219" s="50"/>
+      <c r="G219" s="51"/>
+      <c r="H219" s="51"/>
+      <c r="I219" s="51"/>
+      <c r="J219" s="52"/>
+      <c r="K219" s="52"/>
+      <c r="L219" s="52"/>
+      <c r="M219" s="52"/>
+      <c r="N219" s="52"/>
+      <c r="O219" s="52"/>
+      <c r="P219" s="52"/>
+      <c r="Q219" s="52"/>
+      <c r="R219" s="52"/>
+      <c r="S219" s="52"/>
+      <c r="T219" s="52"/>
+      <c r="U219" s="53"/>
+      <c r="V219" s="54"/>
+      <c r="W219" s="55" t="s">
         <v>99</v>
       </c>
       <c r="Y219" s="0" t="n">
@@ -12509,7 +12503,7 @@
         <v>21</v>
       </c>
       <c r="Z219" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA219" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("VALIDAZIONE_CDA2_RAP_CT",Y219,"_KO")</f>
@@ -12517,39 +12511,39 @@
       </c>
     </row>
     <row r="220" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A220" s="39" t="n">
+      <c r="A220" s="38" t="n">
         <v>442</v>
       </c>
-      <c r="B220" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C220" s="40" t="s">
-        <v>429</v>
-      </c>
-      <c r="D220" s="40" t="s">
+      <c r="B220" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C220" s="39" t="s">
+        <v>428</v>
+      </c>
+      <c r="D220" s="39" t="s">
+        <v>472</v>
+      </c>
+      <c r="E220" s="40" t="s">
         <v>473</v>
       </c>
-      <c r="E220" s="41" t="s">
-        <v>474</v>
-      </c>
-      <c r="F220" s="42"/>
-      <c r="G220" s="43"/>
-      <c r="H220" s="43"/>
-      <c r="I220" s="43"/>
-      <c r="J220" s="44"/>
-      <c r="K220" s="44"/>
-      <c r="L220" s="44"/>
-      <c r="M220" s="44"/>
-      <c r="N220" s="44"/>
-      <c r="O220" s="44"/>
-      <c r="P220" s="44"/>
-      <c r="Q220" s="44"/>
-      <c r="R220" s="44"/>
-      <c r="S220" s="44"/>
-      <c r="T220" s="44"/>
-      <c r="U220" s="45"/>
-      <c r="V220" s="57"/>
-      <c r="W220" s="38" t="s">
+      <c r="F220" s="41"/>
+      <c r="G220" s="42"/>
+      <c r="H220" s="42"/>
+      <c r="I220" s="42"/>
+      <c r="J220" s="43"/>
+      <c r="K220" s="43"/>
+      <c r="L220" s="43"/>
+      <c r="M220" s="43"/>
+      <c r="N220" s="43"/>
+      <c r="O220" s="43"/>
+      <c r="P220" s="43"/>
+      <c r="Q220" s="43"/>
+      <c r="R220" s="43"/>
+      <c r="S220" s="43"/>
+      <c r="T220" s="43"/>
+      <c r="U220" s="44"/>
+      <c r="V220" s="56"/>
+      <c r="W220" s="37" t="s">
         <v>99</v>
       </c>
       <c r="Y220" s="0" t="n">
@@ -12557,7 +12551,7 @@
         <v>22</v>
       </c>
       <c r="Z220" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA220" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("VALIDAZIONE_CDA2_RAP_CT",Y220,"_KO")</f>
@@ -12565,39 +12559,39 @@
       </c>
     </row>
     <row r="221" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A221" s="48" t="n">
+      <c r="A221" s="47" t="n">
         <v>443</v>
       </c>
-      <c r="B221" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="C221" s="49" t="s">
-        <v>429</v>
-      </c>
-      <c r="D221" s="49" t="s">
+      <c r="B221" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C221" s="48" t="s">
+        <v>428</v>
+      </c>
+      <c r="D221" s="48" t="s">
+        <v>474</v>
+      </c>
+      <c r="E221" s="49" t="s">
         <v>475</v>
       </c>
-      <c r="E221" s="50" t="s">
-        <v>476</v>
-      </c>
-      <c r="F221" s="51"/>
-      <c r="G221" s="52"/>
-      <c r="H221" s="52"/>
-      <c r="I221" s="52"/>
-      <c r="J221" s="53"/>
-      <c r="K221" s="53"/>
-      <c r="L221" s="53"/>
-      <c r="M221" s="53"/>
-      <c r="N221" s="53"/>
-      <c r="O221" s="53"/>
-      <c r="P221" s="53"/>
-      <c r="Q221" s="53"/>
-      <c r="R221" s="53"/>
-      <c r="S221" s="53"/>
-      <c r="T221" s="53"/>
-      <c r="U221" s="54"/>
-      <c r="V221" s="55"/>
-      <c r="W221" s="56" t="s">
+      <c r="F221" s="50"/>
+      <c r="G221" s="51"/>
+      <c r="H221" s="51"/>
+      <c r="I221" s="51"/>
+      <c r="J221" s="52"/>
+      <c r="K221" s="52"/>
+      <c r="L221" s="52"/>
+      <c r="M221" s="52"/>
+      <c r="N221" s="52"/>
+      <c r="O221" s="52"/>
+      <c r="P221" s="52"/>
+      <c r="Q221" s="52"/>
+      <c r="R221" s="52"/>
+      <c r="S221" s="52"/>
+      <c r="T221" s="52"/>
+      <c r="U221" s="53"/>
+      <c r="V221" s="54"/>
+      <c r="W221" s="55" t="s">
         <v>99</v>
       </c>
       <c r="Y221" s="0" t="n">
@@ -12605,7 +12599,7 @@
         <v>23</v>
       </c>
       <c r="Z221" s="0" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="AA221" s="0" t="str">
         <f aca="false">_xlfn.CONCAT("VALIDAZIONE_CDA2_RAP_CT",Y221,"_KO")</f>
@@ -12613,170 +12607,170 @@
       </c>
     </row>
     <row r="222" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A222" s="48" t="n">
+      <c r="A222" s="47" t="n">
         <v>444</v>
       </c>
-      <c r="B222" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="C222" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="D222" s="49" t="s">
+      <c r="B222" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C222" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D222" s="48" t="s">
+        <v>476</v>
+      </c>
+      <c r="E222" s="49" t="s">
         <v>477</v>
       </c>
-      <c r="E222" s="50" t="s">
+      <c r="F222" s="50"/>
+      <c r="G222" s="51"/>
+      <c r="H222" s="51"/>
+      <c r="I222" s="51"/>
+      <c r="J222" s="52"/>
+      <c r="K222" s="52"/>
+      <c r="L222" s="52"/>
+      <c r="M222" s="52"/>
+      <c r="N222" s="52"/>
+      <c r="O222" s="52"/>
+      <c r="P222" s="52"/>
+      <c r="Q222" s="52"/>
+      <c r="R222" s="52"/>
+      <c r="S222" s="52"/>
+      <c r="T222" s="52"/>
+      <c r="U222" s="53"/>
+      <c r="V222" s="54"/>
+      <c r="W222" s="55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A223" s="47" t="n">
+        <v>445</v>
+      </c>
+      <c r="B223" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C223" s="48" t="s">
+        <v>102</v>
+      </c>
+      <c r="D223" s="48" t="s">
         <v>478</v>
       </c>
-      <c r="F222" s="51"/>
-      <c r="G222" s="52"/>
-      <c r="H222" s="52"/>
-      <c r="I222" s="52"/>
-      <c r="J222" s="53"/>
-      <c r="K222" s="53"/>
-      <c r="L222" s="53"/>
-      <c r="M222" s="53"/>
-      <c r="N222" s="53"/>
-      <c r="O222" s="53"/>
-      <c r="P222" s="53"/>
-      <c r="Q222" s="53"/>
-      <c r="R222" s="53"/>
-      <c r="S222" s="53"/>
-      <c r="T222" s="53"/>
-      <c r="U222" s="54"/>
-      <c r="V222" s="55"/>
-      <c r="W222" s="56" t="s">
+      <c r="E223" s="49" t="s">
+        <v>479</v>
+      </c>
+      <c r="F223" s="50"/>
+      <c r="G223" s="51"/>
+      <c r="H223" s="51"/>
+      <c r="I223" s="51"/>
+      <c r="J223" s="52"/>
+      <c r="K223" s="52"/>
+      <c r="L223" s="52"/>
+      <c r="M223" s="52"/>
+      <c r="N223" s="52"/>
+      <c r="O223" s="52"/>
+      <c r="P223" s="52"/>
+      <c r="Q223" s="52"/>
+      <c r="R223" s="52"/>
+      <c r="S223" s="52"/>
+      <c r="T223" s="52"/>
+      <c r="U223" s="53"/>
+      <c r="V223" s="54"/>
+      <c r="W223" s="55" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="10.5" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A223" s="48" t="n">
-        <v>445</v>
-      </c>
-      <c r="B223" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="C223" s="49" t="s">
-        <v>103</v>
-      </c>
-      <c r="D223" s="49" t="s">
-        <v>479</v>
-      </c>
-      <c r="E223" s="50" t="s">
+    <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A224" s="38" t="n">
+        <v>446</v>
+      </c>
+      <c r="B224" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C224" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="D224" s="39" t="s">
         <v>480</v>
       </c>
-      <c r="F223" s="51"/>
-      <c r="G223" s="52"/>
-      <c r="H223" s="52"/>
-      <c r="I223" s="52"/>
-      <c r="J223" s="53"/>
-      <c r="K223" s="53"/>
-      <c r="L223" s="53"/>
-      <c r="M223" s="53"/>
-      <c r="N223" s="53"/>
-      <c r="O223" s="53"/>
-      <c r="P223" s="53"/>
-      <c r="Q223" s="53"/>
-      <c r="R223" s="53"/>
-      <c r="S223" s="53"/>
-      <c r="T223" s="53"/>
-      <c r="U223" s="54"/>
-      <c r="V223" s="55"/>
-      <c r="W223" s="56" t="s">
+      <c r="E224" s="40" t="s">
+        <v>481</v>
+      </c>
+      <c r="F224" s="41" t="n">
+        <v>45575</v>
+      </c>
+      <c r="G224" s="30" t="s">
+        <v>482</v>
+      </c>
+      <c r="H224" s="42" t="s">
+        <v>483</v>
+      </c>
+      <c r="I224" s="42" t="s">
+        <v>484</v>
+      </c>
+      <c r="J224" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="K224" s="43"/>
+      <c r="L224" s="43"/>
+      <c r="M224" s="43"/>
+      <c r="N224" s="43"/>
+      <c r="O224" s="43"/>
+      <c r="P224" s="43"/>
+      <c r="Q224" s="43"/>
+      <c r="R224" s="43"/>
+      <c r="S224" s="43"/>
+      <c r="T224" s="43"/>
+      <c r="U224" s="44"/>
+      <c r="V224" s="56"/>
+      <c r="W224" s="37" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A224" s="39" t="n">
-        <v>446</v>
-      </c>
-      <c r="B224" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C224" s="40" t="s">
-        <v>105</v>
-      </c>
-      <c r="D224" s="40" t="s">
-        <v>481</v>
-      </c>
-      <c r="E224" s="41" t="s">
-        <v>482</v>
-      </c>
-      <c r="F224" s="42" t="n">
+    <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A225" s="47" t="n">
+        <v>447</v>
+      </c>
+      <c r="B225" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C225" s="48" t="s">
+        <v>104</v>
+      </c>
+      <c r="D225" s="48" t="s">
+        <v>485</v>
+      </c>
+      <c r="E225" s="49" t="s">
+        <v>486</v>
+      </c>
+      <c r="F225" s="50" t="n">
         <v>45575</v>
       </c>
-      <c r="G224" s="30" t="s">
-        <v>483</v>
-      </c>
-      <c r="H224" s="43" t="s">
-        <v>484</v>
-      </c>
-      <c r="I224" s="43" t="s">
-        <v>485</v>
-      </c>
-      <c r="J224" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="K224" s="44"/>
-      <c r="L224" s="44"/>
-      <c r="M224" s="44"/>
-      <c r="N224" s="44"/>
-      <c r="O224" s="44"/>
-      <c r="P224" s="44"/>
-      <c r="Q224" s="44"/>
-      <c r="R224" s="44"/>
-      <c r="S224" s="44"/>
-      <c r="T224" s="44"/>
-      <c r="U224" s="45"/>
-      <c r="V224" s="57"/>
-      <c r="W224" s="38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A225" s="48" t="n">
-        <v>447</v>
-      </c>
-      <c r="B225" s="49" t="s">
-        <v>46</v>
-      </c>
-      <c r="C225" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="D225" s="49" t="s">
-        <v>486</v>
-      </c>
-      <c r="E225" s="50" t="s">
+      <c r="G225" s="30" t="s">
         <v>487</v>
       </c>
-      <c r="F225" s="51" t="n">
-        <v>45575</v>
-      </c>
-      <c r="G225" s="30" t="s">
+      <c r="H225" s="51" t="s">
         <v>488</v>
       </c>
-      <c r="H225" s="52" t="s">
+      <c r="I225" s="51" t="s">
         <v>489</v>
       </c>
-      <c r="I225" s="52" t="s">
-        <v>490</v>
-      </c>
-      <c r="J225" s="53" t="s">
-        <v>62</v>
-      </c>
-      <c r="K225" s="53"/>
-      <c r="L225" s="53"/>
-      <c r="M225" s="53"/>
-      <c r="N225" s="53"/>
-      <c r="O225" s="53"/>
-      <c r="P225" s="53"/>
-      <c r="Q225" s="53"/>
-      <c r="R225" s="53"/>
-      <c r="S225" s="53"/>
-      <c r="T225" s="53"/>
-      <c r="U225" s="54"/>
-      <c r="V225" s="55"/>
-      <c r="W225" s="56" t="s">
+      <c r="J225" s="52" t="s">
+        <v>122</v>
+      </c>
+      <c r="K225" s="52"/>
+      <c r="L225" s="52"/>
+      <c r="M225" s="52"/>
+      <c r="N225" s="52"/>
+      <c r="O225" s="52"/>
+      <c r="P225" s="52"/>
+      <c r="Q225" s="52"/>
+      <c r="R225" s="52"/>
+      <c r="S225" s="52"/>
+      <c r="T225" s="52"/>
+      <c r="U225" s="53"/>
+      <c r="V225" s="54"/>
+      <c r="W225" s="55" t="s">
         <v>50</v>
       </c>
     </row>
@@ -12784,7 +12778,7 @@
       <c r="F226" s="11"/>
       <c r="G226" s="11"/>
       <c r="H226" s="11"/>
-      <c r="I226" s="58"/>
+      <c r="I226" s="57"/>
       <c r="J226" s="12"/>
       <c r="K226" s="12"/>
       <c r="L226" s="12"/>
@@ -17375,6 +17369,7 @@
   <autoFilter ref="A9:W225">
     <filterColumn colId="2">
       <filters>
+        <filter val="LDO"/>
         <filter val="RAD"/>
         <filter val="RSA"/>
       </filters>
@@ -17398,7 +17393,7 @@
       <formula1>Sheet1!$A$2:$A$3</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K10:K42 K44:K225" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="K10:K225" type="list">
       <formula1>'LISTA VALORI'!$A$2:$A$8</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -17430,7 +17425,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17440,32 +17435,32 @@
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
   </sheetData>
@@ -17492,7 +17487,7 @@
       <selection pane="bottomLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.82"/>
@@ -17505,162 +17500,162 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B1" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="17" t="s">
+        <v>496</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>497</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="F1" s="58" t="s">
         <v>498</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="G1" s="59" t="s">
         <v>499</v>
       </c>
-      <c r="G1" s="60" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="60" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="61" t="s">
+      <c r="C2" s="61" t="s">
         <v>501</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="D2" s="61" t="s">
         <v>502</v>
       </c>
-      <c r="D2" s="62" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="60" t="s">
+        <v>500</v>
+      </c>
+      <c r="C3" s="61" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>501</v>
-      </c>
-      <c r="C3" s="62" t="s">
+      <c r="D3" s="61" t="s">
         <v>504</v>
       </c>
-      <c r="D3" s="62" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>500</v>
+      </c>
+      <c r="C4" s="61" t="n">
+        <v>446.447</v>
+      </c>
+      <c r="D4" s="62" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>501</v>
-      </c>
-      <c r="C4" s="62" t="n">
-        <v>446.447</v>
-      </c>
-      <c r="D4" s="63" t="s">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="60" t="s">
+        <v>500</v>
+      </c>
+      <c r="C5" s="61" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>501</v>
-      </c>
-      <c r="C5" s="62" t="s">
+      <c r="D5" s="61" t="s">
         <v>507</v>
       </c>
-      <c r="D5" s="62" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>500</v>
+      </c>
+      <c r="C6" s="61" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>501</v>
-      </c>
-      <c r="C6" s="62" t="s">
+      <c r="D6" s="62" t="s">
         <v>509</v>
       </c>
-      <c r="D6" s="63" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>500</v>
+      </c>
+      <c r="C7" s="61" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="61" t="s">
-        <v>501</v>
-      </c>
-      <c r="C7" s="62" t="s">
+      <c r="D7" s="62" t="s">
         <v>511</v>
       </c>
-      <c r="D7" s="63" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>500</v>
+      </c>
+      <c r="C8" s="61" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="61" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>501</v>
-      </c>
-      <c r="C8" s="62" t="s">
+      <c r="D8" s="62" t="s">
         <v>513</v>
       </c>
-      <c r="D8" s="63" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>500</v>
+      </c>
+      <c r="C9" s="61" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="61" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>501</v>
-      </c>
-      <c r="C9" s="62" t="s">
+      <c r="D9" s="62" t="s">
         <v>515</v>
       </c>
-      <c r="D9" s="63" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="60" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="61" t="s">
+      <c r="B10" s="60" t="s">
+        <v>500</v>
+      </c>
+      <c r="C10" s="62" t="s">
         <v>517</v>
       </c>
-      <c r="B10" s="61" t="s">
-        <v>501</v>
-      </c>
-      <c r="C10" s="63" t="s">
+      <c r="D10" s="61" t="s">
         <v>518</v>
       </c>
-      <c r="D10" s="62" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="60" t="s">
+        <v>428</v>
+      </c>
+      <c r="B11" s="60" t="s">
+        <v>500</v>
+      </c>
+      <c r="C11" s="61" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="61" t="s">
-        <v>429</v>
-      </c>
-      <c r="B11" s="61" t="s">
-        <v>501</v>
-      </c>
-      <c r="C11" s="62" t="s">
+      <c r="D11" s="62" t="s">
         <v>520</v>
-      </c>
-      <c r="D11" s="63" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -18636,7 +18631,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.47265625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.17"/>
@@ -18644,32 +18639,32 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="63" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="63" t="s">
+        <v>521</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="63" t="s">
         <v>522</v>
       </c>
-      <c r="B2" s="64" t="s">
+      <c r="B3" s="63" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="64" t="s">
-        <v>523</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>101</v>
-      </c>
-    </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="64"/>
-      <c r="B4" s="64"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="63"/>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/GATEWAY/A1#111#SYNCLABSRLXX/SYNCLAB_Srl/SYNCLINIC/4.2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#SYNCLABSRLXX/SYNCLAB_Srl/SYNCLINIC/4.2.0/report-checklist.xlsx
@@ -1332,13 +1332,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2024-10-07T13:11:50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4e8a68cc1651ebd5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.50504.4.4.5.58abd399bad0600779e72c5fcca9a61309f0e511bf2b092b549e63acade3e465.8b9d5d5161^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2024-10-18T12:50:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ab347a3cfbccb089</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.50504.4.4.5.58abd399bad0600779e72c5fcca9a61309f0e511bf2b092b549e63acade3e465.c110832ebd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT2</t>
@@ -1678,13 +1678,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2024-10-07T13:03:43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">381e415bcf541f99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.50504.4.4.5.58abd399bad0600779e72c5fcca9a61309f0e511bf2b092b549e63acade3e465.d76f89a521^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2024-10-18T12:55:36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30dd182ce2e78450</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.50504.4.4.5.58abd399bad0600779e72c5fcca9a61309f0e511bf2b092b549e63acade3e465.954bc694d5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_TRASF_CT2</t>
@@ -2765,7 +2765,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.82"/>
@@ -2852,7 +2852,7 @@
       <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.18"/>
@@ -3926,14 +3926,14 @@
   <dimension ref="A1:AA809"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B32" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E172" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A32" activeCellId="0" sqref="A32"/>
-      <selection pane="bottomRight" activeCell="A48" activeCellId="0" sqref="A48"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A172" activeCellId="0" sqref="A172"/>
+      <selection pane="bottomRight" activeCell="I196" activeCellId="0" sqref="I196"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.55"/>
@@ -9644,7 +9644,7 @@
         <v>324</v>
       </c>
       <c r="F150" s="29" t="n">
-        <v>45572</v>
+        <v>45583</v>
       </c>
       <c r="G150" s="30" t="s">
         <v>325</v>
@@ -11454,7 +11454,7 @@
         <v>422</v>
       </c>
       <c r="F196" s="29" t="n">
-        <v>45572</v>
+        <v>45583</v>
       </c>
       <c r="G196" s="30" t="s">
         <v>423</v>
@@ -17487,7 +17487,7 @@
       <selection pane="bottomLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.82"/>
@@ -18631,7 +18631,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.17"/>

--- a/GATEWAY/A1#111#SYNCLABSRLXX/SYNCLAB_Srl/SYNCLINIC/4.2.0/report-checklist.xlsx
+++ b/GATEWAY/A1#111#SYNCLABSRLXX/SYNCLAB_Srl/SYNCLINIC/4.2.0/report-checklist.xlsx
@@ -1332,13 +1332,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2024-10-18T12:50:08</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ab347a3cfbccb089</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.50504.4.4.5.58abd399bad0600779e72c5fcca9a61309f0e511bf2b092b549e63acade3e465.c110832ebd^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2024-10-18T17:13:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c813c0ae7a301162</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.50504.4.4.5.58abd399bad0600779e72c5fcca9a61309f0e511bf2b092b549e63acade3e465.a5b0cca70b^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_RSA_CT2</t>
@@ -1678,13 +1678,13 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2024-10-18T12:55:36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30dd182ce2e78450</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.16.840.1.113883.2.9.2.50504.4.4.5.58abd399bad0600779e72c5fcca9a61309f0e511bf2b092b549e63acade3e465.954bc694d5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t xml:space="preserve">2024-10-18T17:12:03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b3c09998490c8b23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.16.840.1.113883.2.9.2.50504.4.4.5.58abd399bad0600779e72c5fcca9a61309f0e511bf2b092b549e63acade3e465.1ec23cfbdf^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t xml:space="preserve">VALIDAZIONE_CDA2_LAB_TRASF_CT2</t>
@@ -2765,7 +2765,7 @@
       <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.49609375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="130.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="2" style="0" width="8.82"/>
@@ -2852,7 +2852,7 @@
       <selection pane="topLeft" activeCell="B48" activeCellId="0" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.49609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="3.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="194.18"/>
@@ -3926,14 +3926,14 @@
   <dimension ref="A1:AA809"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E172" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E93" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A172" activeCellId="0" sqref="A172"/>
-      <selection pane="bottomRight" activeCell="I196" activeCellId="0" sqref="I196"/>
+      <selection pane="bottomLeft" activeCell="A93" activeCellId="0" sqref="A93"/>
+      <selection pane="bottomRight" activeCell="I151" activeCellId="0" sqref="I151"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.49609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.55"/>
@@ -17487,7 +17487,7 @@
       <selection pane="bottomLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.49609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.82"/>
@@ -18631,7 +18631,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48828125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.49609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.17"/>
